--- a/projects/resstock_testing.xlsx
+++ b/projects/resstock_testing.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="437">
   <si>
     <t>type</t>
   </si>
@@ -855,15 +855,6 @@
     <t>Location EPW</t>
   </si>
   <si>
-    <t>Vintage</t>
-  </si>
-  <si>
-    <t>Heating Fuel</t>
-  </si>
-  <si>
-    <t>Usage Level</t>
-  </si>
-  <si>
     <t>Geometry Foundation Type</t>
   </si>
   <si>
@@ -1101,15 +1092,6 @@
     <t>building_characteristics_report.Location EPW</t>
   </si>
   <si>
-    <t>building_characteristics_report.Vintage</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Heating Fuel</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Usage Level</t>
-  </si>
-  <si>
     <t>building_characteristics_report.Geometry Foundation Type</t>
   </si>
   <si>
@@ -1357,18 +1339,6 @@
   </si>
   <si>
     <t>[1]</t>
-  </si>
-  <si>
-    <t>Location Heating Region</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Location Heating Region</t>
-  </si>
-  <si>
-    <t>Location Cooling Region</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Location Cooling Region</t>
   </si>
   <si>
     <t>ResStock_Testing</t>
@@ -5512,7 +5482,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>153</v>
@@ -5623,7 +5593,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>75</v>
@@ -5645,7 +5615,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>154</v>
@@ -5739,19 +5709,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B25" s="20">
         <v>1</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="21"/>
@@ -5815,7 +5785,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6212,7 +6182,7 @@
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="44" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
@@ -6226,16 +6196,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
@@ -6266,7 +6236,7 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E7" s="52" t="str">
         <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
@@ -6295,7 +6265,7 @@
       </c>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="52" t="s">
@@ -6315,13 +6285,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>234</v>
@@ -6351,13 +6321,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>234</v>
@@ -6436,11 +6406,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6556,12 +6526,12 @@
     </row>
     <row r="4" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>441</v>
+        <v>272</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47" t="s">
@@ -6583,12 +6553,12 @@
     </row>
     <row r="5" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>443</v>
+        <v>273</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47" t="s">
-        <v>444</v>
+        <v>352</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="47" t="s">
@@ -6610,12 +6580,12 @@
     </row>
     <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47" t="s">
@@ -6637,12 +6607,12 @@
     </row>
     <row r="7" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="47" t="s">
@@ -6664,12 +6634,12 @@
     </row>
     <row r="8" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47" t="s">
@@ -6691,12 +6661,12 @@
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>275</v>
+        <v>423</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47" t="s">
@@ -6718,12 +6688,12 @@
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47" t="s">
@@ -6745,12 +6715,12 @@
     </row>
     <row r="11" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47" t="s">
@@ -6772,12 +6742,12 @@
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47" t="s">
@@ -6799,14 +6769,11 @@
     </row>
     <row r="13" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+        <v>280</v>
+      </c>
       <c r="D13" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="E13" s="47"/>
+        <v>359</v>
+      </c>
       <c r="F13" s="47" t="s">
         <v>240</v>
       </c>
@@ -6819,21 +6786,14 @@
       <c r="I13" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
+        <v>281</v>
+      </c>
       <c r="D14" s="47" t="s">
-        <v>430</v>
-      </c>
-      <c r="E14" s="47"/>
+        <v>360</v>
+      </c>
       <c r="F14" s="47" t="s">
         <v>240</v>
       </c>
@@ -6846,19 +6806,15 @@
       <c r="I14" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
       <c r="D15" s="47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="47" t="s">
@@ -6880,12 +6836,12 @@
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47" t="s">
@@ -6907,12 +6863,12 @@
     </row>
     <row r="17" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47" t="s">
@@ -6934,11 +6890,14 @@
     </row>
     <row r="18" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>283</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="47" t="s">
-        <v>365</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="E18" s="47"/>
       <c r="F18" s="47" t="s">
         <v>240</v>
       </c>
@@ -6951,14 +6910,21 @@
       <c r="I18" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
     </row>
     <row r="19" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>284</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="47" t="s">
-        <v>366</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="E19" s="47"/>
       <c r="F19" s="47" t="s">
         <v>240</v>
       </c>
@@ -6971,17 +6937,18 @@
       <c r="I19" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
     </row>
     <row r="20" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+        <v>286</v>
+      </c>
       <c r="D20" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="E20" s="47"/>
+        <v>366</v>
+      </c>
       <c r="F20" s="47" t="s">
         <v>240</v>
       </c>
@@ -6994,21 +6961,14 @@
       <c r="I20" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
     </row>
     <row r="21" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+        <v>287</v>
+      </c>
       <c r="D21" s="47" t="s">
-        <v>368</v>
-      </c>
-      <c r="E21" s="47"/>
+        <v>367</v>
+      </c>
       <c r="F21" s="47" t="s">
         <v>240</v>
       </c>
@@ -7021,21 +6981,14 @@
       <c r="I21" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+        <v>288</v>
+      </c>
       <c r="D22" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="E22" s="47"/>
+        <v>368</v>
+      </c>
       <c r="F22" s="47" t="s">
         <v>240</v>
       </c>
@@ -7048,21 +7001,14 @@
       <c r="I22" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
     </row>
     <row r="23" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+        <v>289</v>
+      </c>
       <c r="D23" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="E23" s="47"/>
+        <v>369</v>
+      </c>
       <c r="F23" s="47" t="s">
         <v>240</v>
       </c>
@@ -7075,21 +7021,14 @@
       <c r="I23" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
     </row>
     <row r="24" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
+        <v>290</v>
+      </c>
       <c r="D24" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="E24" s="47"/>
+        <v>370</v>
+      </c>
       <c r="F24" s="47" t="s">
         <v>240</v>
       </c>
@@ -7102,17 +7041,13 @@
       <c r="I24" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
     </row>
     <row r="25" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>240</v>
@@ -7129,10 +7064,10 @@
     </row>
     <row r="26" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>240</v>
@@ -7149,10 +7084,10 @@
     </row>
     <row r="27" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>240</v>
@@ -7169,10 +7104,10 @@
     </row>
     <row r="28" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F28" s="47" t="s">
         <v>240</v>
@@ -7189,10 +7124,10 @@
     </row>
     <row r="29" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>240</v>
@@ -7209,10 +7144,10 @@
     </row>
     <row r="30" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>240</v>
@@ -7229,10 +7164,10 @@
     </row>
     <row r="31" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>240</v>
@@ -7249,10 +7184,10 @@
     </row>
     <row r="32" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>240</v>
@@ -7269,10 +7204,10 @@
     </row>
     <row r="33" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>240</v>
@@ -7289,10 +7224,10 @@
     </row>
     <row r="34" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F34" s="47" t="s">
         <v>240</v>
@@ -7309,10 +7244,10 @@
     </row>
     <row r="35" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>240</v>
@@ -7329,10 +7264,10 @@
     </row>
     <row r="36" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F36" s="47" t="s">
         <v>240</v>
@@ -7349,10 +7284,10 @@
     </row>
     <row r="37" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>240</v>
@@ -7369,10 +7304,10 @@
     </row>
     <row r="38" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F38" s="47" t="s">
         <v>240</v>
@@ -7389,10 +7324,10 @@
     </row>
     <row r="39" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>240</v>
@@ -7409,10 +7344,10 @@
     </row>
     <row r="40" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="F40" s="47" t="s">
         <v>240</v>
@@ -7432,7 +7367,7 @@
         <v>305</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F41" s="47" t="s">
         <v>240</v>
@@ -7449,10 +7384,10 @@
     </row>
     <row r="42" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F42" s="47" t="s">
         <v>240</v>
@@ -7469,10 +7404,10 @@
     </row>
     <row r="43" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F43" s="47" t="s">
         <v>240</v>
@@ -7489,10 +7424,10 @@
     </row>
     <row r="44" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F44" s="47" t="s">
         <v>240</v>
@@ -7509,10 +7444,10 @@
     </row>
     <row r="45" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="F45" s="47" t="s">
         <v>240</v>
@@ -7529,10 +7464,10 @@
     </row>
     <row r="46" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F46" s="47" t="s">
         <v>240</v>
@@ -7549,10 +7484,10 @@
     </row>
     <row r="47" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>240</v>
@@ -7569,10 +7504,10 @@
     </row>
     <row r="48" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>240</v>
@@ -7589,10 +7524,10 @@
     </row>
     <row r="49" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>240</v>
@@ -7609,10 +7544,10 @@
     </row>
     <row r="50" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>240</v>
@@ -7629,10 +7564,10 @@
     </row>
     <row r="51" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>240</v>
@@ -7649,10 +7584,10 @@
     </row>
     <row r="52" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>240</v>
@@ -7669,10 +7604,10 @@
     </row>
     <row r="53" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>240</v>
@@ -7689,10 +7624,10 @@
     </row>
     <row r="54" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>240</v>
@@ -7709,10 +7644,10 @@
     </row>
     <row r="55" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>240</v>
@@ -7729,10 +7664,10 @@
     </row>
     <row r="56" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>240</v>
@@ -7749,10 +7684,10 @@
     </row>
     <row r="57" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>240</v>
@@ -7769,10 +7704,10 @@
     </row>
     <row r="58" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>240</v>
@@ -7789,10 +7724,10 @@
     </row>
     <row r="59" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>240</v>
@@ -7809,10 +7744,10 @@
     </row>
     <row r="60" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>240</v>
@@ -7829,10 +7764,10 @@
     </row>
     <row r="61" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>240</v>
@@ -7849,10 +7784,10 @@
     </row>
     <row r="62" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F62" s="47" t="s">
         <v>240</v>
@@ -7869,10 +7804,10 @@
     </row>
     <row r="63" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>240</v>
@@ -7889,10 +7824,10 @@
     </row>
     <row r="64" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F64" s="47" t="s">
         <v>240</v>
@@ -7909,10 +7844,10 @@
     </row>
     <row r="65" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>240</v>
@@ -7927,115 +7862,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="F66" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G66" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="F67" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G67" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="F68" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G68" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="D69" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="F69" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G69" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
+    <row r="66" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D70" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="F70" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G70" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="47" t="b">
+      <c r="F66" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G66" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G67" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G68" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G69" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G70" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G71" s="13" t="b">
         <v>0</v>
@@ -8049,13 +7984,13 @@
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G72" s="13" t="b">
         <v>0</v>
@@ -8069,13 +8004,13 @@
     </row>
     <row r="73" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G73" s="13" t="b">
         <v>0</v>
@@ -8089,13 +8024,13 @@
     </row>
     <row r="74" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G74" s="13" t="b">
         <v>0</v>
@@ -8109,13 +8044,13 @@
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G75" s="13" t="b">
         <v>0</v>
@@ -8129,13 +8064,13 @@
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G76" s="13" t="b">
         <v>0</v>
@@ -8149,13 +8084,13 @@
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G77" s="13" t="b">
         <v>0</v>
@@ -8168,14 +8103,14 @@
       </c>
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
-        <v>248</v>
+      <c r="A78" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G78" s="13" t="b">
         <v>0</v>
@@ -8188,14 +8123,14 @@
       </c>
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
-        <v>249</v>
+      <c r="A79" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G79" s="13" t="b">
         <v>0</v>
@@ -8208,14 +8143,14 @@
       </c>
     </row>
     <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
-        <v>250</v>
+      <c r="A80" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G80" s="13" t="b">
         <v>0</v>
@@ -8228,14 +8163,14 @@
       </c>
     </row>
     <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
-        <v>251</v>
+      <c r="A81" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G81" s="13" t="b">
         <v>0</v>
@@ -8248,14 +8183,14 @@
       </c>
     </row>
     <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
-        <v>252</v>
+      <c r="A82" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G82" s="13" t="b">
         <v>0</v>
@@ -8269,13 +8204,13 @@
     </row>
     <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G83" s="13" t="b">
         <v>0</v>
@@ -8289,13 +8224,13 @@
     </row>
     <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>254</v>
+        <v>419</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G84" s="13" t="b">
         <v>0</v>
@@ -8306,16 +8241,20 @@
       <c r="I84" s="13" t="b">
         <v>0</v>
       </c>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
     </row>
     <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>255</v>
+        <v>421</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G85" s="13" t="b">
         <v>0</v>
@@ -8326,16 +8265,20 @@
       <c r="I85" s="13" t="b">
         <v>0</v>
       </c>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
     </row>
     <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>256</v>
+      <c r="A86" s="48" t="s">
+        <v>425</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G86" s="13" t="b">
         <v>0</v>
@@ -8348,14 +8291,14 @@
       </c>
     </row>
     <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>257</v>
+      <c r="A87" s="48" t="s">
+        <v>426</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G87" s="13" t="b">
         <v>0</v>
@@ -8367,113 +8310,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="G88" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="G89" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="48"/>
-    </row>
-    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="G90" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
-    </row>
-    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="G91" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="G92" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="13" t="b">
-        <v>0</v>
-      </c>
+    <row r="88" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="20"/>
+      <c r="D88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="20"/>
+      <c r="D89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="20"/>
+      <c r="D90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="20"/>
+      <c r="D91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="20"/>
+      <c r="D92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
@@ -8691,46 +8571,56 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
     </row>
-    <row r="117" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="20"/>
+      <c r="C117" s="21"/>
       <c r="D117" s="14"/>
+      <c r="E117" s="21"/>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
     </row>
-    <row r="118" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="20"/>
+      <c r="C118" s="21"/>
       <c r="D118" s="14"/>
+      <c r="E118" s="21"/>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
     </row>
-    <row r="119" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="20"/>
+      <c r="C119" s="21"/>
       <c r="D119" s="14"/>
+      <c r="E119" s="21"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
     </row>
-    <row r="120" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="20"/>
+      <c r="C120" s="21"/>
       <c r="D120" s="14"/>
+      <c r="E120" s="21"/>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="20"/>
+      <c r="C121" s="21"/>
       <c r="D121" s="14"/>
+      <c r="E121" s="21"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
@@ -8746,61 +8636,6 @@
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_testing.xlsx
+++ b/projects/resstock_testing.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="439">
   <si>
     <t>type</t>
   </si>
@@ -1345,6 +1345,12 @@
   </si>
   <si>
     <t>../weather/testing/*.*</t>
+  </si>
+  <si>
+    <t>Insulation Pier Beam</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.Insulation Pier Beam</t>
   </si>
 </sst>
 </file>
@@ -6406,7 +6412,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -6964,10 +6970,10 @@
     </row>
     <row r="21" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>287</v>
+        <v>437</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>240</v>
@@ -6984,10 +6990,10 @@
     </row>
     <row r="22" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>240</v>
@@ -7004,10 +7010,10 @@
     </row>
     <row r="23" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>240</v>
@@ -7024,10 +7030,10 @@
     </row>
     <row r="24" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>240</v>
@@ -7044,10 +7050,10 @@
     </row>
     <row r="25" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>240</v>
@@ -7064,10 +7070,10 @@
     </row>
     <row r="26" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>240</v>
@@ -7084,10 +7090,10 @@
     </row>
     <row r="27" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>240</v>
@@ -7104,10 +7110,10 @@
     </row>
     <row r="28" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F28" s="47" t="s">
         <v>240</v>
@@ -7124,10 +7130,10 @@
     </row>
     <row r="29" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>240</v>
@@ -7144,10 +7150,10 @@
     </row>
     <row r="30" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>240</v>
@@ -7164,10 +7170,10 @@
     </row>
     <row r="31" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>240</v>
@@ -7184,10 +7190,10 @@
     </row>
     <row r="32" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>240</v>
@@ -7204,10 +7210,10 @@
     </row>
     <row r="33" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>240</v>
@@ -7224,10 +7230,10 @@
     </row>
     <row r="34" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F34" s="47" t="s">
         <v>240</v>
@@ -7244,10 +7250,10 @@
     </row>
     <row r="35" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>240</v>
@@ -7264,10 +7270,10 @@
     </row>
     <row r="36" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F36" s="47" t="s">
         <v>240</v>
@@ -7284,10 +7290,10 @@
     </row>
     <row r="37" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>240</v>
@@ -7304,10 +7310,10 @@
     </row>
     <row r="38" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F38" s="47" t="s">
         <v>240</v>
@@ -7324,10 +7330,10 @@
     </row>
     <row r="39" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>240</v>
@@ -7344,10 +7350,10 @@
     </row>
     <row r="40" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>416</v>
+        <v>304</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="F40" s="47" t="s">
         <v>240</v>
@@ -7364,10 +7370,10 @@
     </row>
     <row r="41" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="F41" s="47" t="s">
         <v>240</v>
@@ -7384,10 +7390,10 @@
     </row>
     <row r="42" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F42" s="47" t="s">
         <v>240</v>
@@ -7404,10 +7410,10 @@
     </row>
     <row r="43" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F43" s="47" t="s">
         <v>240</v>
@@ -7424,10 +7430,10 @@
     </row>
     <row r="44" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F44" s="47" t="s">
         <v>240</v>
@@ -7444,10 +7450,10 @@
     </row>
     <row r="45" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F45" s="47" t="s">
         <v>240</v>
@@ -7464,10 +7470,10 @@
     </row>
     <row r="46" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F46" s="47" t="s">
         <v>240</v>
@@ -7484,10 +7490,10 @@
     </row>
     <row r="47" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>240</v>
@@ -7504,10 +7510,10 @@
     </row>
     <row r="48" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>240</v>
@@ -7524,10 +7530,10 @@
     </row>
     <row r="49" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>240</v>
@@ -7544,10 +7550,10 @@
     </row>
     <row r="50" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>240</v>
@@ -7564,10 +7570,10 @@
     </row>
     <row r="51" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>240</v>
@@ -7584,10 +7590,10 @@
     </row>
     <row r="52" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>240</v>
@@ -7604,10 +7610,10 @@
     </row>
     <row r="53" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>240</v>
@@ -7624,10 +7630,10 @@
     </row>
     <row r="54" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>240</v>
@@ -7644,10 +7650,10 @@
     </row>
     <row r="55" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>240</v>
@@ -7664,10 +7670,10 @@
     </row>
     <row r="56" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>240</v>
@@ -7684,10 +7690,10 @@
     </row>
     <row r="57" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>240</v>
@@ -7704,10 +7710,10 @@
     </row>
     <row r="58" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>240</v>
@@ -7724,10 +7730,10 @@
     </row>
     <row r="59" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>240</v>
@@ -7744,10 +7750,10 @@
     </row>
     <row r="60" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>240</v>
@@ -7764,10 +7770,10 @@
     </row>
     <row r="61" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>240</v>
@@ -7784,10 +7790,10 @@
     </row>
     <row r="62" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F62" s="47" t="s">
         <v>240</v>
@@ -7804,10 +7810,10 @@
     </row>
     <row r="63" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>240</v>
@@ -7824,10 +7830,10 @@
     </row>
     <row r="64" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F64" s="47" t="s">
         <v>240</v>
@@ -7844,10 +7850,10 @@
     </row>
     <row r="65" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>240</v>
@@ -7862,32 +7868,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G66" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" s="13" t="b">
+    <row r="66" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>411</v>
@@ -7904,10 +7910,10 @@
     </row>
     <row r="68" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>411</v>
@@ -7924,10 +7930,10 @@
     </row>
     <row r="69" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>411</v>
@@ -7944,10 +7950,10 @@
     </row>
     <row r="70" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>411</v>
@@ -7964,10 +7970,10 @@
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>411</v>
@@ -7984,10 +7990,10 @@
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>411</v>
@@ -8004,10 +8010,10 @@
     </row>
     <row r="73" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>411</v>
@@ -8024,10 +8030,10 @@
     </row>
     <row r="74" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>411</v>
@@ -8044,10 +8050,10 @@
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>411</v>
@@ -8064,10 +8070,10 @@
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>411</v>
@@ -8084,10 +8090,10 @@
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>411</v>
@@ -8103,11 +8109,11 @@
       </c>
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>253</v>
+      <c r="A78" s="48" t="s">
+        <v>252</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>411</v>
@@ -8124,10 +8130,10 @@
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>411</v>
@@ -8144,10 +8150,10 @@
     </row>
     <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>411</v>
@@ -8164,10 +8170,10 @@
     </row>
     <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>411</v>
@@ -8184,10 +8190,10 @@
     </row>
     <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>411</v>
@@ -8204,10 +8210,10 @@
     </row>
     <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>411</v>
@@ -8224,10 +8230,10 @@
     </row>
     <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>419</v>
+        <v>258</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>420</v>
+        <v>348</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>411</v>
@@ -8241,17 +8247,13 @@
       <c r="I84" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
     </row>
     <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>411</v>
@@ -8271,11 +8273,11 @@
       <c r="M85" s="48"/>
     </row>
     <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
-        <v>425</v>
+      <c r="A86" s="13" t="s">
+        <v>421</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>411</v>
@@ -8289,13 +8291,17 @@
       <c r="I86" s="13" t="b">
         <v>0</v>
       </c>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
     </row>
     <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>411</v>
@@ -8310,14 +8316,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="20"/>
-      <c r="D88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G88" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
@@ -8571,12 +8588,10 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="20"/>
-      <c r="C117" s="21"/>
       <c r="D117" s="14"/>
-      <c r="E117" s="21"/>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
@@ -8636,6 +8651,17 @@
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_testing.xlsx
+++ b/projects/resstock_testing.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="447">
   <si>
     <t>type</t>
   </si>
@@ -957,9 +957,6 @@
     <t>HVAC System Combined</t>
   </si>
   <si>
-    <t>HVAC System Heating</t>
-  </si>
-  <si>
     <t>HVAC System Cooling</t>
   </si>
   <si>
@@ -1200,9 +1197,6 @@
     <t>building_characteristics_report.HVAC System Combined</t>
   </si>
   <si>
-    <t>building_characteristics_report.HVAC System Heating</t>
-  </si>
-  <si>
     <t>building_characteristics_report.HVAC System Cooling</t>
   </si>
   <si>
@@ -1351,6 +1345,36 @@
   </si>
   <si>
     <t>building_characteristics_report.Insulation Pier Beam</t>
+  </si>
+  <si>
+    <t>Heating Fuel</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.Heating Fuel</t>
+  </si>
+  <si>
+    <t>HVAC System Heating Electricity</t>
+  </si>
+  <si>
+    <t>HVAC System Heating Natural Gas</t>
+  </si>
+  <si>
+    <t>HVAC System Heating Propane</t>
+  </si>
+  <si>
+    <t>HVAC System Heating Fuel Oil</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.HVAC System Heating Electricity</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.HVAC System Heating Natural Gas</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.HVAC System Heating Propane</t>
+  </si>
+  <si>
+    <t>building_characteristics_report.HVAC System Heating Fuel Oil</t>
   </si>
 </sst>
 </file>
@@ -5488,7 +5512,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>153</v>
@@ -5599,7 +5623,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>75</v>
@@ -5621,7 +5645,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>154</v>
@@ -5715,19 +5739,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B25" s="20">
         <v>1</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="21"/>
@@ -5791,7 +5815,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6188,7 +6212,7 @@
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
@@ -6202,16 +6226,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>430</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>431</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>432</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
@@ -6242,7 +6266,7 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E7" s="52" t="str">
         <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
@@ -6271,7 +6295,7 @@
       </c>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="52" t="s">
@@ -6291,13 +6315,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>350</v>
-      </c>
       <c r="D8" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>234</v>
@@ -6327,13 +6351,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>330</v>
-      </c>
       <c r="D9" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>234</v>
@@ -6412,7 +6436,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -6537,7 +6561,7 @@
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47" t="s">
@@ -6559,12 +6583,12 @@
     </row>
     <row r="5" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>273</v>
+        <v>437</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="47" t="s">
@@ -6586,12 +6610,12 @@
     </row>
     <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47" t="s">
@@ -6613,12 +6637,12 @@
     </row>
     <row r="7" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="47" t="s">
@@ -6640,12 +6664,12 @@
     </row>
     <row r="8" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47" t="s">
@@ -6667,12 +6691,12 @@
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>423</v>
+        <v>276</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47" t="s">
-        <v>424</v>
+        <v>354</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47" t="s">
@@ -6694,12 +6718,12 @@
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>277</v>
+        <v>421</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47" t="s">
@@ -6721,12 +6745,12 @@
     </row>
     <row r="11" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47" t="s">
@@ -6748,12 +6772,12 @@
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="47" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47" t="s">
@@ -6775,11 +6799,14 @@
     </row>
     <row r="13" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>280</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="47" t="s">
-        <v>359</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="E13" s="47"/>
       <c r="F13" s="47" t="s">
         <v>240</v>
       </c>
@@ -6792,13 +6819,17 @@
       <c r="I13" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F14" s="47" t="s">
         <v>240</v>
@@ -6815,14 +6846,11 @@
     </row>
     <row r="15" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
+        <v>281</v>
+      </c>
       <c r="D15" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="E15" s="47"/>
+        <v>359</v>
+      </c>
       <c r="F15" s="47" t="s">
         <v>240</v>
       </c>
@@ -6835,19 +6863,15 @@
       <c r="I15" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47" t="s">
@@ -6869,12 +6893,12 @@
     </row>
     <row r="17" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47" t="s">
@@ -6896,12 +6920,12 @@
     </row>
     <row r="18" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47" t="s">
@@ -6923,12 +6947,12 @@
     </row>
     <row r="19" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="47" t="s">
@@ -6950,11 +6974,14 @@
     </row>
     <row r="20" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>286</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="47" t="s">
-        <v>366</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="E20" s="47"/>
       <c r="F20" s="47" t="s">
         <v>240</v>
       </c>
@@ -6967,13 +6994,17 @@
       <c r="I20" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
     </row>
     <row r="21" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>437</v>
+        <v>286</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>438</v>
+        <v>365</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>240</v>
@@ -6990,10 +7021,10 @@
     </row>
     <row r="22" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>287</v>
+        <v>435</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>240</v>
@@ -7010,10 +7041,10 @@
     </row>
     <row r="23" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>240</v>
@@ -7030,10 +7061,10 @@
     </row>
     <row r="24" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>240</v>
@@ -7050,10 +7081,10 @@
     </row>
     <row r="25" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>240</v>
@@ -7070,10 +7101,10 @@
     </row>
     <row r="26" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>240</v>
@@ -7090,10 +7121,10 @@
     </row>
     <row r="27" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>240</v>
@@ -7110,10 +7141,10 @@
     </row>
     <row r="28" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F28" s="47" t="s">
         <v>240</v>
@@ -7130,10 +7161,10 @@
     </row>
     <row r="29" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>240</v>
@@ -7150,10 +7181,10 @@
     </row>
     <row r="30" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>240</v>
@@ -7170,10 +7201,10 @@
     </row>
     <row r="31" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>240</v>
@@ -7190,10 +7221,10 @@
     </row>
     <row r="32" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>240</v>
@@ -7210,10 +7241,10 @@
     </row>
     <row r="33" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>240</v>
@@ -7230,10 +7261,10 @@
     </row>
     <row r="34" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F34" s="47" t="s">
         <v>240</v>
@@ -7250,10 +7281,10 @@
     </row>
     <row r="35" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>240</v>
@@ -7270,10 +7301,10 @@
     </row>
     <row r="36" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F36" s="47" t="s">
         <v>240</v>
@@ -7290,10 +7321,10 @@
     </row>
     <row r="37" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>240</v>
@@ -7310,10 +7341,10 @@
     </row>
     <row r="38" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F38" s="47" t="s">
         <v>240</v>
@@ -7330,10 +7361,10 @@
     </row>
     <row r="39" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>240</v>
@@ -7350,10 +7381,10 @@
     </row>
     <row r="40" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F40" s="47" t="s">
         <v>240</v>
@@ -7370,10 +7401,10 @@
     </row>
     <row r="41" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>416</v>
+        <v>304</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="F41" s="47" t="s">
         <v>240</v>
@@ -7390,10 +7421,10 @@
     </row>
     <row r="42" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>305</v>
+        <v>414</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="F42" s="47" t="s">
         <v>240</v>
@@ -7410,10 +7441,10 @@
     </row>
     <row r="43" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F43" s="47" t="s">
         <v>240</v>
@@ -7430,10 +7461,10 @@
     </row>
     <row r="44" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F44" s="47" t="s">
         <v>240</v>
@@ -7450,10 +7481,10 @@
     </row>
     <row r="45" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>308</v>
+        <v>439</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="F45" s="47" t="s">
         <v>240</v>
@@ -7470,10 +7501,10 @@
     </row>
     <row r="46" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>309</v>
+        <v>440</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="F46" s="47" t="s">
         <v>240</v>
@@ -7490,10 +7521,10 @@
     </row>
     <row r="47" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>310</v>
+        <v>441</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>240</v>
@@ -7510,10 +7541,10 @@
     </row>
     <row r="48" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>311</v>
+        <v>442</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>240</v>
@@ -7530,10 +7561,10 @@
     </row>
     <row r="49" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>240</v>
@@ -7550,10 +7581,10 @@
     </row>
     <row r="50" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>240</v>
@@ -7570,10 +7601,10 @@
     </row>
     <row r="51" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>240</v>
@@ -7590,10 +7621,10 @@
     </row>
     <row r="52" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>240</v>
@@ -7610,10 +7641,10 @@
     </row>
     <row r="53" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>240</v>
@@ -7630,10 +7661,10 @@
     </row>
     <row r="54" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>240</v>
@@ -7650,10 +7681,10 @@
     </row>
     <row r="55" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>240</v>
@@ -7670,10 +7701,10 @@
     </row>
     <row r="56" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>240</v>
@@ -7690,10 +7721,10 @@
     </row>
     <row r="57" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>240</v>
@@ -7710,10 +7741,10 @@
     </row>
     <row r="58" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>240</v>
@@ -7730,10 +7761,10 @@
     </row>
     <row r="59" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>240</v>
@@ -7750,10 +7781,10 @@
     </row>
     <row r="60" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>240</v>
@@ -7770,10 +7801,10 @@
     </row>
     <row r="61" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>240</v>
@@ -7790,10 +7821,10 @@
     </row>
     <row r="62" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F62" s="47" t="s">
         <v>240</v>
@@ -7810,10 +7841,10 @@
     </row>
     <row r="63" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>240</v>
@@ -7830,10 +7861,10 @@
     </row>
     <row r="64" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F64" s="47" t="s">
         <v>240</v>
@@ -7850,10 +7881,10 @@
     </row>
     <row r="65" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>240</v>
@@ -7870,10 +7901,10 @@
     </row>
     <row r="66" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F66" s="47" t="s">
         <v>240</v>
@@ -7888,95 +7919,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G67" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G68" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G69" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G70" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="13" t="b">
+    <row r="67" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G67" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="F70" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G70" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G71" s="13" t="b">
         <v>0</v>
@@ -7990,13 +8021,13 @@
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G72" s="13" t="b">
         <v>0</v>
@@ -8010,13 +8041,13 @@
     </row>
     <row r="73" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G73" s="13" t="b">
         <v>0</v>
@@ -8030,13 +8061,13 @@
     </row>
     <row r="74" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G74" s="13" t="b">
         <v>0</v>
@@ -8050,13 +8081,13 @@
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G75" s="13" t="b">
         <v>0</v>
@@ -8070,13 +8101,13 @@
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G76" s="13" t="b">
         <v>0</v>
@@ -8090,13 +8121,13 @@
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G77" s="13" t="b">
         <v>0</v>
@@ -8110,93 +8141,93 @@
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G78" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G79" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G80" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G81" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G78" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G79" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G80" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G81" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>256</v>
-      </c>
       <c r="D82" s="13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G82" s="13" t="b">
         <v>0</v>
@@ -8210,13 +8241,13 @@
     </row>
     <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G83" s="13" t="b">
         <v>0</v>
@@ -8230,13 +8261,13 @@
     </row>
     <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G84" s="13" t="b">
         <v>0</v>
@@ -8250,13 +8281,13 @@
     </row>
     <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>419</v>
+        <v>255</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G85" s="13" t="b">
         <v>0</v>
@@ -8267,20 +8298,16 @@
       <c r="I85" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J85" s="48"/>
-      <c r="K85" s="48"/>
-      <c r="L85" s="48"/>
-      <c r="M85" s="48"/>
     </row>
     <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>421</v>
+        <v>256</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G86" s="13" t="b">
         <v>0</v>
@@ -8291,86 +8318,134 @@
       <c r="I86" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
     </row>
     <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="48" t="s">
+      <c r="A87" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G87" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G88" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G89" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="48"/>
+      <c r="M89" s="48"/>
+    </row>
+    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G90" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+    </row>
+    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="D87" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G87" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
+      <c r="F91" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G91" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D88" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G88" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="20"/>
-      <c r="D89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-    </row>
-    <row r="90" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="20"/>
-      <c r="D90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-    </row>
-    <row r="91" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="20"/>
-      <c r="D91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="20"/>
-      <c r="D92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+      <c r="F92" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G92" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
@@ -8597,45 +8672,37 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="20"/>
-      <c r="C118" s="21"/>
       <c r="D118" s="14"/>
-      <c r="E118" s="21"/>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="20"/>
-      <c r="C119" s="21"/>
       <c r="D119" s="14"/>
-      <c r="E119" s="21"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="20"/>
-      <c r="C120" s="21"/>
       <c r="D120" s="14"/>
-      <c r="E120" s="21"/>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="20"/>
-      <c r="C121" s="21"/>
       <c r="D121" s="14"/>
-      <c r="E121" s="21"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
@@ -8662,6 +8729,50 @@
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_testing.xlsx
+++ b/projects/resstock_testing.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="379">
   <si>
     <t>type</t>
   </si>
@@ -888,9 +888,6 @@
     <t>Insulation Wall</t>
   </si>
   <si>
-    <t>Insulation Interzonal Wall</t>
-  </si>
-  <si>
     <t>Insulation Slab</t>
   </si>
   <si>
@@ -1086,183 +1083,6 @@
     <t>BuildingCharacteristicsReport</t>
   </si>
   <si>
-    <t>building_characteristics_report.Location EPW</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Geometry Foundation Type</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Geometry House Size</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Geometry Stories</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Geometry Garage</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Orientation</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Eaves</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Overhangs</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Door Area</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Window Areas</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Neighbors</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Unfinished Attic</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Wall</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Interzonal Wall</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Slab</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Crawlspace</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Unfinished Basement</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Finished Basement</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Insulation Interzonal Floor</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Uninsulated Surfaces</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Roof Sheathing</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Wall Sheathing</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Floor Sheathing</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Exterior Finish</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Roof Material</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Floor Covering</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Floor</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Exterior Wall</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Partition Wall</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Ceiling</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Thermal Mass Furniture</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Doors</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Windows</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Water Heater</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Hot Water Fixtures</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Is Combined</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Combined</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Cooling</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Heating Setpoint</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Cooling Setpoint</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Refrigerator</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Cooking Range</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Dishwasher</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Clothes Washer</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Clothes Dryer</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Lighting</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Plug Loads</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Extra Refrigerator</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Freezer</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Gas Fireplace</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Gas Grill</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Gas Lighting</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Hot Tub Spa</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Pool</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Misc Well Pump</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Ducts</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Infiltration</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Natural Ventilation</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.Mechanical Ventilation</t>
-  </si>
-  <si>
     <t>Double</t>
   </si>
   <si>
@@ -1281,9 +1101,6 @@
     <t>Hot Water Distribution</t>
   </si>
   <si>
-    <t>building_characteristics_report.Hot Water Distribution</t>
-  </si>
-  <si>
     <t>../analysis_results</t>
   </si>
   <si>
@@ -1302,9 +1119,6 @@
     <t>Occupants</t>
   </si>
   <si>
-    <t>building_characteristics_report.Occupants</t>
-  </si>
-  <si>
     <t>HVAC Cooling Capacity W</t>
   </si>
   <si>
@@ -1344,15 +1158,9 @@
     <t>Insulation Pier Beam</t>
   </si>
   <si>
-    <t>building_characteristics_report.Insulation Pier Beam</t>
-  </si>
-  <si>
     <t>Heating Fuel</t>
   </si>
   <si>
-    <t>building_characteristics_report.Heating Fuel</t>
-  </si>
-  <si>
     <t>HVAC System Heating Electricity</t>
   </si>
   <si>
@@ -1363,18 +1171,6 @@
   </si>
   <si>
     <t>HVAC System Heating Fuel Oil</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Heating Electricity</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Heating Natural Gas</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Heating Propane</t>
-  </si>
-  <si>
-    <t>building_characteristics_report.HVAC System Heating Fuel Oil</t>
   </si>
 </sst>
 </file>
@@ -5512,7 +5308,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>153</v>
@@ -5623,7 +5419,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>75</v>
@@ -5645,7 +5441,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>154</v>
@@ -5739,19 +5535,19 @@
         <v>1000</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="B25" s="20">
         <v>1</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="21"/>
@@ -5815,7 +5611,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>434</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5958,9 +5754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6212,7 +6006,7 @@
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="44" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
@@ -6226,16 +6020,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
@@ -6266,7 +6060,7 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="E7" s="52" t="str">
         <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
@@ -6295,7 +6089,7 @@
       </c>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="52" t="s">
@@ -6315,13 +6109,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>349</v>
-      </c>
       <c r="D8" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>234</v>
@@ -6351,13 +6145,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>329</v>
-      </c>
       <c r="D9" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>234</v>
@@ -6436,7 +6230,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -6560,8 +6354,9 @@
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
-        <v>350</v>
+      <c r="D4" s="47" t="str">
+        <f>"building_characteristics_report."&amp;A4</f>
+        <v>building_characteristics_report.Location EPW</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47" t="s">
@@ -6583,12 +6378,13 @@
     </row>
     <row r="5" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
-        <v>438</v>
+      <c r="D5" s="47" t="str">
+        <f t="shared" ref="D5:D68" si="0">"building_characteristics_report."&amp;A5</f>
+        <v>building_characteristics_report.Heating Fuel</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="47" t="s">
@@ -6614,8 +6410,9 @@
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
-        <v>351</v>
+      <c r="D6" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Geometry Foundation Type</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47" t="s">
@@ -6641,8 +6438,9 @@
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
-        <v>352</v>
+      <c r="D7" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Geometry House Size</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="47" t="s">
@@ -6668,8 +6466,9 @@
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="47" t="s">
-        <v>353</v>
+      <c r="D8" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Geometry Stories</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47" t="s">
@@ -6695,8 +6494,9 @@
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="47" t="s">
-        <v>354</v>
+      <c r="D9" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Geometry Garage</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47" t="s">
@@ -6718,12 +6518,13 @@
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
-      <c r="D10" s="47" t="s">
-        <v>422</v>
+      <c r="D10" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Occupants</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47" t="s">
@@ -6749,8 +6550,9 @@
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="47" t="s">
-        <v>355</v>
+      <c r="D11" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Orientation</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47" t="s">
@@ -6776,8 +6578,9 @@
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
-      <c r="D12" s="47" t="s">
-        <v>356</v>
+      <c r="D12" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Eaves</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47" t="s">
@@ -6803,8 +6606,9 @@
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
-      <c r="D13" s="47" t="s">
-        <v>357</v>
+      <c r="D13" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Overhangs</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47" t="s">
@@ -6828,8 +6632,9 @@
       <c r="A14" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>358</v>
+      <c r="D14" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Door Area</v>
       </c>
       <c r="F14" s="47" t="s">
         <v>240</v>
@@ -6848,8 +6653,9 @@
       <c r="A15" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>359</v>
+      <c r="D15" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Window Areas</v>
       </c>
       <c r="F15" s="47" t="s">
         <v>240</v>
@@ -6870,8 +6676,9 @@
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
-      <c r="D16" s="47" t="s">
-        <v>360</v>
+      <c r="D16" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Neighbors</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47" t="s">
@@ -6897,8 +6704,9 @@
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
-      <c r="D17" s="47" t="s">
-        <v>361</v>
+      <c r="D17" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Unfinished Attic</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47" t="s">
@@ -6924,8 +6732,9 @@
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
-      <c r="D18" s="47" t="s">
-        <v>362</v>
+      <c r="D18" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Wall</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47" t="s">
@@ -6951,8 +6760,9 @@
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
-      <c r="D19" s="47" t="s">
-        <v>363</v>
+      <c r="D19" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Slab</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="47" t="s">
@@ -6976,12 +6786,10 @@
       <c r="A20" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="E20" s="47"/>
+      <c r="D20" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Crawlspace</v>
+      </c>
       <c r="F20" s="47" t="s">
         <v>240</v>
       </c>
@@ -6994,17 +6802,14 @@
       <c r="I20" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
     </row>
     <row r="21" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>365</v>
+        <v>373</v>
+      </c>
+      <c r="D21" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Pier Beam</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>240</v>
@@ -7021,10 +6826,11 @@
     </row>
     <row r="22" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>436</v>
+        <v>286</v>
+      </c>
+      <c r="D22" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Unfinished Basement</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>240</v>
@@ -7043,8 +6849,9 @@
       <c r="A23" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="47" t="s">
-        <v>366</v>
+      <c r="D23" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Finished Basement</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>240</v>
@@ -7063,8 +6870,9 @@
       <c r="A24" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="47" t="s">
-        <v>367</v>
+      <c r="D24" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Insulation Interzonal Floor</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>240</v>
@@ -7083,8 +6891,9 @@
       <c r="A25" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="D25" s="47" t="s">
-        <v>368</v>
+      <c r="D25" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Uninsulated Surfaces</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>240</v>
@@ -7103,8 +6912,9 @@
       <c r="A26" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="D26" s="47" t="s">
-        <v>369</v>
+      <c r="D26" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Roof Sheathing</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>240</v>
@@ -7123,8 +6933,9 @@
       <c r="A27" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="47" t="s">
-        <v>370</v>
+      <c r="D27" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Wall Sheathing</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>240</v>
@@ -7143,8 +6954,9 @@
       <c r="A28" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>371</v>
+      <c r="D28" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Floor Sheathing</v>
       </c>
       <c r="F28" s="47" t="s">
         <v>240</v>
@@ -7163,8 +6975,9 @@
       <c r="A29" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="D29" s="47" t="s">
-        <v>372</v>
+      <c r="D29" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Exterior Finish</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>240</v>
@@ -7183,8 +6996,9 @@
       <c r="A30" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="D30" s="47" t="s">
-        <v>373</v>
+      <c r="D30" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Roof Material</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>240</v>
@@ -7203,8 +7017,9 @@
       <c r="A31" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="D31" s="47" t="s">
-        <v>374</v>
+      <c r="D31" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Floor Covering</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>240</v>
@@ -7223,8 +7038,9 @@
       <c r="A32" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="D32" s="47" t="s">
-        <v>375</v>
+      <c r="D32" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Floor</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>240</v>
@@ -7243,8 +7059,9 @@
       <c r="A33" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="D33" s="47" t="s">
-        <v>376</v>
+      <c r="D33" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Exterior Wall</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>240</v>
@@ -7263,8 +7080,9 @@
       <c r="A34" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="D34" s="47" t="s">
-        <v>377</v>
+      <c r="D34" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Partition Wall</v>
       </c>
       <c r="F34" s="47" t="s">
         <v>240</v>
@@ -7283,8 +7101,9 @@
       <c r="A35" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="47" t="s">
-        <v>378</v>
+      <c r="D35" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Ceiling</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>240</v>
@@ -7303,8 +7122,9 @@
       <c r="A36" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="D36" s="47" t="s">
-        <v>379</v>
+      <c r="D36" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Thermal Mass Furniture</v>
       </c>
       <c r="F36" s="47" t="s">
         <v>240</v>
@@ -7323,8 +7143,9 @@
       <c r="A37" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="D37" s="47" t="s">
-        <v>380</v>
+      <c r="D37" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Doors</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>240</v>
@@ -7341,10 +7162,11 @@
     </row>
     <row r="38" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>381</v>
+        <v>265</v>
+      </c>
+      <c r="D38" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Windows</v>
       </c>
       <c r="F38" s="47" t="s">
         <v>240</v>
@@ -7361,10 +7183,11 @@
     </row>
     <row r="39" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>382</v>
+        <v>302</v>
+      </c>
+      <c r="D39" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Water Heater</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>240</v>
@@ -7383,8 +7206,9 @@
       <c r="A40" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>383</v>
+      <c r="D40" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Hot Water Fixtures</v>
       </c>
       <c r="F40" s="47" t="s">
         <v>240</v>
@@ -7401,10 +7225,11 @@
     </row>
     <row r="41" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>384</v>
+        <v>354</v>
+      </c>
+      <c r="D41" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Hot Water Distribution</v>
       </c>
       <c r="F41" s="47" t="s">
         <v>240</v>
@@ -7421,10 +7246,11 @@
     </row>
     <row r="42" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>415</v>
+        <v>304</v>
+      </c>
+      <c r="D42" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Is Combined</v>
       </c>
       <c r="F42" s="47" t="s">
         <v>240</v>
@@ -7443,8 +7269,9 @@
       <c r="A43" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="D43" s="47" t="s">
-        <v>385</v>
+      <c r="D43" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Combined</v>
       </c>
       <c r="F43" s="47" t="s">
         <v>240</v>
@@ -7461,10 +7288,11 @@
     </row>
     <row r="44" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>386</v>
+        <v>375</v>
+      </c>
+      <c r="D44" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Heating Electricity</v>
       </c>
       <c r="F44" s="47" t="s">
         <v>240</v>
@@ -7481,10 +7309,11 @@
     </row>
     <row r="45" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>443</v>
+        <v>376</v>
+      </c>
+      <c r="D45" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Heating Natural Gas</v>
       </c>
       <c r="F45" s="47" t="s">
         <v>240</v>
@@ -7501,10 +7330,11 @@
     </row>
     <row r="46" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>444</v>
+        <v>377</v>
+      </c>
+      <c r="D46" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Heating Propane</v>
       </c>
       <c r="F46" s="47" t="s">
         <v>240</v>
@@ -7521,10 +7351,11 @@
     </row>
     <row r="47" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>445</v>
+        <v>378</v>
+      </c>
+      <c r="D47" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Heating Fuel Oil</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>240</v>
@@ -7541,10 +7372,11 @@
     </row>
     <row r="48" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>446</v>
+        <v>306</v>
+      </c>
+      <c r="D48" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.HVAC System Cooling</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>240</v>
@@ -7563,8 +7395,9 @@
       <c r="A49" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="D49" s="47" t="s">
-        <v>387</v>
+      <c r="D49" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Heating Setpoint</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>240</v>
@@ -7583,8 +7416,9 @@
       <c r="A50" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="D50" s="47" t="s">
-        <v>388</v>
+      <c r="D50" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Cooling Setpoint</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>240</v>
@@ -7603,8 +7437,9 @@
       <c r="A51" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="D51" s="47" t="s">
-        <v>389</v>
+      <c r="D51" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Refrigerator</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>240</v>
@@ -7623,8 +7458,9 @@
       <c r="A52" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="D52" s="47" t="s">
-        <v>390</v>
+      <c r="D52" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Cooking Range</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>240</v>
@@ -7643,8 +7479,9 @@
       <c r="A53" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="D53" s="47" t="s">
-        <v>391</v>
+      <c r="D53" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Dishwasher</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>240</v>
@@ -7663,8 +7500,9 @@
       <c r="A54" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="D54" s="47" t="s">
-        <v>392</v>
+      <c r="D54" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Clothes Washer</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>240</v>
@@ -7683,8 +7521,9 @@
       <c r="A55" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="D55" s="47" t="s">
-        <v>393</v>
+      <c r="D55" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Clothes Dryer</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>240</v>
@@ -7701,10 +7540,11 @@
     </row>
     <row r="56" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>394</v>
+        <v>266</v>
+      </c>
+      <c r="D56" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Lighting</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>240</v>
@@ -7721,10 +7561,11 @@
     </row>
     <row r="57" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>395</v>
+        <v>314</v>
+      </c>
+      <c r="D57" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Plug Loads</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>240</v>
@@ -7743,8 +7584,9 @@
       <c r="A58" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="D58" s="47" t="s">
-        <v>396</v>
+      <c r="D58" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Extra Refrigerator</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>240</v>
@@ -7763,8 +7605,9 @@
       <c r="A59" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="D59" s="47" t="s">
-        <v>397</v>
+      <c r="D59" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Freezer</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>240</v>
@@ -7783,8 +7626,9 @@
       <c r="A60" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="D60" s="47" t="s">
-        <v>398</v>
+      <c r="D60" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Gas Fireplace</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>240</v>
@@ -7803,8 +7647,9 @@
       <c r="A61" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="D61" s="47" t="s">
-        <v>399</v>
+      <c r="D61" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Gas Grill</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>240</v>
@@ -7823,8 +7668,9 @@
       <c r="A62" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="D62" s="47" t="s">
-        <v>400</v>
+      <c r="D62" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Gas Lighting</v>
       </c>
       <c r="F62" s="47" t="s">
         <v>240</v>
@@ -7843,8 +7689,9 @@
       <c r="A63" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D63" s="47" t="s">
-        <v>401</v>
+      <c r="D63" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Hot Tub Spa</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>240</v>
@@ -7863,8 +7710,9 @@
       <c r="A64" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="D64" s="47" t="s">
-        <v>402</v>
+      <c r="D64" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Pool</v>
       </c>
       <c r="F64" s="47" t="s">
         <v>240</v>
@@ -7883,8 +7731,9 @@
       <c r="A65" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="D65" s="47" t="s">
-        <v>403</v>
+      <c r="D65" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Misc Well Pump</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>240</v>
@@ -7903,8 +7752,9 @@
       <c r="A66" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="D66" s="47" t="s">
-        <v>404</v>
+      <c r="D66" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Ducts</v>
       </c>
       <c r="F66" s="47" t="s">
         <v>240</v>
@@ -7923,8 +7773,9 @@
       <c r="A67" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="D67" s="47" t="s">
-        <v>405</v>
+      <c r="D67" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Infiltration</v>
       </c>
       <c r="F67" s="47" t="s">
         <v>240</v>
@@ -7943,8 +7794,9 @@
       <c r="A68" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="D68" s="47" t="s">
-        <v>406</v>
+      <c r="D68" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>building_characteristics_report.Natural Ventilation</v>
       </c>
       <c r="F68" s="47" t="s">
         <v>240</v>
@@ -7963,8 +7815,9 @@
       <c r="A69" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="D69" s="47" t="s">
-        <v>407</v>
+      <c r="D69" s="47" t="str">
+        <f t="shared" ref="D69" si="1">"building_characteristics_report."&amp;A69</f>
+        <v>building_characteristics_report.Mechanical Ventilation</v>
       </c>
       <c r="F69" s="47" t="s">
         <v>240</v>
@@ -7979,35 +7832,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="F70" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G70" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="47" t="b">
+    <row r="70" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="G70" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>330</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G71" s="13" t="b">
         <v>0</v>
@@ -8021,13 +7874,13 @@
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>331</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G72" s="13" t="b">
         <v>0</v>
@@ -8041,13 +7894,13 @@
     </row>
     <row r="73" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>332</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G73" s="13" t="b">
         <v>0</v>
@@ -8061,13 +7914,13 @@
     </row>
     <row r="74" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>333</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G74" s="13" t="b">
         <v>0</v>
@@ -8081,13 +7934,13 @@
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>334</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G75" s="13" t="b">
         <v>0</v>
@@ -8101,13 +7954,13 @@
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>335</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G76" s="13" t="b">
         <v>0</v>
@@ -8121,13 +7974,13 @@
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>336</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G77" s="13" t="b">
         <v>0</v>
@@ -8141,13 +7994,13 @@
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>337</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G78" s="13" t="b">
         <v>0</v>
@@ -8161,13 +8014,13 @@
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>338</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G79" s="13" t="b">
         <v>0</v>
@@ -8181,13 +8034,13 @@
     </row>
     <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>339</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G80" s="13" t="b">
         <v>0</v>
@@ -8201,13 +8054,13 @@
     </row>
     <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>340</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G81" s="13" t="b">
         <v>0</v>
@@ -8220,14 +8073,14 @@
       </c>
     </row>
     <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
-        <v>252</v>
+      <c r="A82" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>341</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G82" s="13" t="b">
         <v>0</v>
@@ -8241,13 +8094,13 @@
     </row>
     <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>342</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G83" s="13" t="b">
         <v>0</v>
@@ -8261,13 +8114,13 @@
     </row>
     <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>343</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G84" s="13" t="b">
         <v>0</v>
@@ -8281,13 +8134,13 @@
     </row>
     <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>344</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G85" s="13" t="b">
         <v>0</v>
@@ -8301,13 +8154,13 @@
     </row>
     <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>345</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G86" s="13" t="b">
         <v>0</v>
@@ -8321,13 +8174,13 @@
     </row>
     <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>346</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G87" s="13" t="b">
         <v>0</v>
@@ -8341,13 +8194,13 @@
     </row>
     <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>258</v>
+        <v>356</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G88" s="13" t="b">
         <v>0</v>
@@ -8358,16 +8211,20 @@
       <c r="I88" s="13" t="b">
         <v>0</v>
       </c>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
     </row>
     <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G89" s="13" t="b">
         <v>0</v>
@@ -8384,14 +8241,14 @@
       <c r="M89" s="48"/>
     </row>
     <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>419</v>
+      <c r="A90" s="48" t="s">
+        <v>361</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G90" s="13" t="b">
         <v>0</v>
@@ -8402,20 +8259,16 @@
       <c r="I90" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
     </row>
     <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>425</v>
+        <v>364</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="G91" s="13" t="b">
         <v>0</v>
@@ -8427,25 +8280,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="G92" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="13" t="b">
-        <v>0</v>
-      </c>
+    <row r="92" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="20"/>
+      <c r="D92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
@@ -8699,10 +8541,12 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="20"/>
+      <c r="C121" s="21"/>
       <c r="D121" s="14"/>
+      <c r="E121" s="21"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
@@ -8762,17 +8606,6 @@
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_testing.xlsx
+++ b/projects/resstock_testing.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="358">
   <si>
     <t>type</t>
   </si>
@@ -1023,60 +1023,6 @@
     <t>SimulationOutputReport</t>
   </si>
   <si>
-    <t>simulation_output_report.Total Site Energy MBtu</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Total Site Electricity kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Total Site Natural Gas therm</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Total Site Other Fuel MBtu</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Heating kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Cooling kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Interior Lighting kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Exterior Lighting kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Interior Equipment kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Fans kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Pumps kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Electricity Water Systems kWh</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Natural Gas Heating therm</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Natural Gas Interior Equipment therm</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Natural Gas Water Systems therm</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Other Fuel Heating MBtu</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Other Fuel Interior Equipment MBtu</t>
-  </si>
-  <si>
-    <t>simulation_output_report.Other Fuel Water Systems MBtu</t>
-  </si>
-  <si>
     <t>Building Characteristics Report</t>
   </si>
   <si>
@@ -1107,15 +1053,9 @@
     <t>Hours Heating Setpoint Not Met</t>
   </si>
   <si>
-    <t>simulation_output_report.Hours Heating Setpoint Not Met</t>
-  </si>
-  <si>
     <t>Hours Cooling Setpoint Not Met</t>
   </si>
   <si>
-    <t>simulation_output_report.Hours Cooling Setpoint Not Met</t>
-  </si>
-  <si>
     <t>Occupants</t>
   </si>
   <si>
@@ -1125,15 +1065,6 @@
     <t>HVAC Heating Capacity W</t>
   </si>
   <si>
-    <t>simulation_output_report.HVAC Cooling Capacity W</t>
-  </si>
-  <si>
-    <t>simulation_output_report.HVAC Heating Capacity W</t>
-  </si>
-  <si>
-    <t>1.20.1</t>
-  </si>
-  <si>
     <t>Build Existing Models EnergyPlus</t>
   </si>
   <si>
@@ -1171,6 +1102,12 @@
   </si>
   <si>
     <t>HVAC System Heating Fuel Oil</t>
+  </si>
+  <si>
+    <t>1.21.14</t>
+  </si>
+  <si>
+    <t>Ceiling Fan</t>
   </si>
 </sst>
 </file>
@@ -5308,7 +5245,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>153</v>
@@ -5376,7 +5313,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="22" t="s">
@@ -5384,7 +5321,7 @@
       </c>
       <c r="E9" s="22" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$5.04/hour</v>
+        <v>$10.08/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>200</v>
@@ -5419,7 +5356,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>75</v>
@@ -5441,7 +5378,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>154</v>
@@ -5532,22 +5469,22 @@
         <v>3</v>
       </c>
       <c r="B24" s="20">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B25" s="20">
         <v>1</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="21"/>
@@ -5611,7 +5548,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5706,7 +5643,7 @@
       </c>
       <c r="C45" s="2" t="str">
         <f>"['testing'," &amp; B24 &amp; "]"</f>
-        <v>['testing',1000]</v>
+        <v>['testing',10000]</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -5994,7 +5931,7 @@
       </c>
       <c r="L5" s="44">
         <f>Setup!B24</f>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="M5" s="44">
         <v>1</v>
@@ -6006,7 +5943,7 @@
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="44" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
@@ -6020,16 +5957,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
@@ -6060,7 +5997,7 @@
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="52" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="E7" s="52" t="str">
         <f>LOWER(SUBSTITUTE(D7," ","_"))</f>
@@ -6089,7 +6026,7 @@
       </c>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="52" t="s">
@@ -6109,13 +6046,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>234</v>
@@ -6230,11 +6167,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6355,8 +6292,8 @@
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47" t="str">
-        <f>"building_characteristics_report."&amp;A4</f>
-        <v>building_characteristics_report.Location EPW</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A4," ","_"))</f>
+        <v>building_characteristics_report.location_epw</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47" t="s">
@@ -6378,13 +6315,13 @@
     </row>
     <row r="5" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47" t="str">
-        <f t="shared" ref="D5:D68" si="0">"building_characteristics_report."&amp;A5</f>
-        <v>building_characteristics_report.Heating Fuel</v>
+        <f t="shared" ref="D5:D68" si="0">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A5," ","_"))</f>
+        <v>building_characteristics_report.heating_fuel</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="47" t="s">
@@ -6412,7 +6349,7 @@
       <c r="C6" s="47"/>
       <c r="D6" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Geometry Foundation Type</v>
+        <v>building_characteristics_report.geometry_foundation_type</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47" t="s">
@@ -6440,7 +6377,7 @@
       <c r="C7" s="47"/>
       <c r="D7" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Geometry House Size</v>
+        <v>building_characteristics_report.geometry_house_size</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="47" t="s">
@@ -6468,7 +6405,7 @@
       <c r="C8" s="47"/>
       <c r="D8" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Geometry Stories</v>
+        <v>building_characteristics_report.geometry_stories</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47" t="s">
@@ -6496,7 +6433,7 @@
       <c r="C9" s="47"/>
       <c r="D9" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Geometry Garage</v>
+        <v>building_characteristics_report.geometry_garage</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47" t="s">
@@ -6518,13 +6455,13 @@
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Occupants</v>
+        <v>building_characteristics_report.occupants</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47" t="s">
@@ -6552,7 +6489,7 @@
       <c r="C11" s="47"/>
       <c r="D11" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Orientation</v>
+        <v>building_characteristics_report.orientation</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47" t="s">
@@ -6580,7 +6517,7 @@
       <c r="C12" s="47"/>
       <c r="D12" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Eaves</v>
+        <v>building_characteristics_report.eaves</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47" t="s">
@@ -6608,7 +6545,7 @@
       <c r="C13" s="47"/>
       <c r="D13" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Overhangs</v>
+        <v>building_characteristics_report.overhangs</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47" t="s">
@@ -6634,7 +6571,7 @@
       </c>
       <c r="D14" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Door Area</v>
+        <v>building_characteristics_report.door_area</v>
       </c>
       <c r="F14" s="47" t="s">
         <v>240</v>
@@ -6655,7 +6592,7 @@
       </c>
       <c r="D15" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Window Areas</v>
+        <v>building_characteristics_report.window_areas</v>
       </c>
       <c r="F15" s="47" t="s">
         <v>240</v>
@@ -6678,7 +6615,7 @@
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Neighbors</v>
+        <v>building_characteristics_report.neighbors</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47" t="s">
@@ -6706,7 +6643,7 @@
       <c r="C17" s="47"/>
       <c r="D17" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Unfinished Attic</v>
+        <v>building_characteristics_report.insulation_unfinished_attic</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47" t="s">
@@ -6734,7 +6671,7 @@
       <c r="C18" s="47"/>
       <c r="D18" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Wall</v>
+        <v>building_characteristics_report.insulation_wall</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47" t="s">
@@ -6762,7 +6699,7 @@
       <c r="C19" s="47"/>
       <c r="D19" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Slab</v>
+        <v>building_characteristics_report.insulation_slab</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="47" t="s">
@@ -6788,7 +6725,7 @@
       </c>
       <c r="D20" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Crawlspace</v>
+        <v>building_characteristics_report.insulation_crawlspace</v>
       </c>
       <c r="F20" s="47" t="s">
         <v>240</v>
@@ -6805,11 +6742,11 @@
     </row>
     <row r="21" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="D21" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Pier Beam</v>
+        <v>building_characteristics_report.insulation_pier_beam</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>240</v>
@@ -6830,7 +6767,7 @@
       </c>
       <c r="D22" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Unfinished Basement</v>
+        <v>building_characteristics_report.insulation_unfinished_basement</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>240</v>
@@ -6851,7 +6788,7 @@
       </c>
       <c r="D23" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Finished Basement</v>
+        <v>building_characteristics_report.insulation_finished_basement</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>240</v>
@@ -6872,7 +6809,7 @@
       </c>
       <c r="D24" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Insulation Interzonal Floor</v>
+        <v>building_characteristics_report.insulation_interzonal_floor</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>240</v>
@@ -6893,7 +6830,7 @@
       </c>
       <c r="D25" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Uninsulated Surfaces</v>
+        <v>building_characteristics_report.uninsulated_surfaces</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>240</v>
@@ -6914,7 +6851,7 @@
       </c>
       <c r="D26" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Roof Sheathing</v>
+        <v>building_characteristics_report.roof_sheathing</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>240</v>
@@ -6935,7 +6872,7 @@
       </c>
       <c r="D27" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Wall Sheathing</v>
+        <v>building_characteristics_report.wall_sheathing</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>240</v>
@@ -6956,7 +6893,7 @@
       </c>
       <c r="D28" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Floor Sheathing</v>
+        <v>building_characteristics_report.floor_sheathing</v>
       </c>
       <c r="F28" s="47" t="s">
         <v>240</v>
@@ -6977,7 +6914,7 @@
       </c>
       <c r="D29" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Exterior Finish</v>
+        <v>building_characteristics_report.exterior_finish</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>240</v>
@@ -6998,7 +6935,7 @@
       </c>
       <c r="D30" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Roof Material</v>
+        <v>building_characteristics_report.roof_material</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>240</v>
@@ -7019,7 +6956,7 @@
       </c>
       <c r="D31" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Floor Covering</v>
+        <v>building_characteristics_report.floor_covering</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>240</v>
@@ -7040,7 +6977,7 @@
       </c>
       <c r="D32" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Floor</v>
+        <v>building_characteristics_report.thermal_mass_floor</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>240</v>
@@ -7061,7 +6998,7 @@
       </c>
       <c r="D33" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Exterior Wall</v>
+        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>240</v>
@@ -7082,7 +7019,7 @@
       </c>
       <c r="D34" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Partition Wall</v>
+        <v>building_characteristics_report.thermal_mass_partition_wall</v>
       </c>
       <c r="F34" s="47" t="s">
         <v>240</v>
@@ -7103,7 +7040,7 @@
       </c>
       <c r="D35" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Ceiling</v>
+        <v>building_characteristics_report.thermal_mass_ceiling</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>240</v>
@@ -7124,7 +7061,7 @@
       </c>
       <c r="D36" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Thermal Mass Furniture</v>
+        <v>building_characteristics_report.thermal_mass_furniture</v>
       </c>
       <c r="F36" s="47" t="s">
         <v>240</v>
@@ -7145,7 +7082,7 @@
       </c>
       <c r="D37" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Doors</v>
+        <v>building_characteristics_report.doors</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>240</v>
@@ -7166,7 +7103,7 @@
       </c>
       <c r="D38" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Windows</v>
+        <v>building_characteristics_report.windows</v>
       </c>
       <c r="F38" s="47" t="s">
         <v>240</v>
@@ -7187,7 +7124,7 @@
       </c>
       <c r="D39" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Water Heater</v>
+        <v>building_characteristics_report.water_heater</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>240</v>
@@ -7208,7 +7145,7 @@
       </c>
       <c r="D40" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Hot Water Fixtures</v>
+        <v>building_characteristics_report.hot_water_fixtures</v>
       </c>
       <c r="F40" s="47" t="s">
         <v>240</v>
@@ -7225,11 +7162,11 @@
     </row>
     <row r="41" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="D41" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Hot Water Distribution</v>
+        <v>building_characteristics_report.hot_water_distribution</v>
       </c>
       <c r="F41" s="47" t="s">
         <v>240</v>
@@ -7250,7 +7187,7 @@
       </c>
       <c r="D42" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Is Combined</v>
+        <v>building_characteristics_report.hvac_system_is_combined</v>
       </c>
       <c r="F42" s="47" t="s">
         <v>240</v>
@@ -7271,7 +7208,7 @@
       </c>
       <c r="D43" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Combined</v>
+        <v>building_characteristics_report.hvac_system_combined</v>
       </c>
       <c r="F43" s="47" t="s">
         <v>240</v>
@@ -7288,11 +7225,11 @@
     </row>
     <row r="44" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="D44" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Heating Electricity</v>
+        <v>building_characteristics_report.hvac_system_heating_electricity</v>
       </c>
       <c r="F44" s="47" t="s">
         <v>240</v>
@@ -7309,11 +7246,11 @@
     </row>
     <row r="45" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="D45" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Heating Natural Gas</v>
+        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
       </c>
       <c r="F45" s="47" t="s">
         <v>240</v>
@@ -7330,11 +7267,11 @@
     </row>
     <row r="46" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="D46" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Heating Propane</v>
+        <v>building_characteristics_report.hvac_system_heating_propane</v>
       </c>
       <c r="F46" s="47" t="s">
         <v>240</v>
@@ -7351,11 +7288,11 @@
     </row>
     <row r="47" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="D47" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Heating Fuel Oil</v>
+        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>240</v>
@@ -7376,7 +7313,7 @@
       </c>
       <c r="D48" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.HVAC System Cooling</v>
+        <v>building_characteristics_report.hvac_system_cooling</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>240</v>
@@ -7397,7 +7334,7 @@
       </c>
       <c r="D49" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Heating Setpoint</v>
+        <v>building_characteristics_report.heating_setpoint</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>240</v>
@@ -7418,7 +7355,7 @@
       </c>
       <c r="D50" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Cooling Setpoint</v>
+        <v>building_characteristics_report.cooling_setpoint</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>240</v>
@@ -7435,11 +7372,11 @@
     </row>
     <row r="51" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="D51" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Refrigerator</v>
+        <v>building_characteristics_report.ceiling_fan</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>240</v>
@@ -7456,11 +7393,11 @@
     </row>
     <row r="52" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D52" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Cooking Range</v>
+        <v>building_characteristics_report.refrigerator</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>240</v>
@@ -7477,11 +7414,11 @@
     </row>
     <row r="53" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D53" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Dishwasher</v>
+        <v>building_characteristics_report.cooking_range</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>240</v>
@@ -7498,11 +7435,11 @@
     </row>
     <row r="54" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D54" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Clothes Washer</v>
+        <v>building_characteristics_report.dishwasher</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>240</v>
@@ -7519,11 +7456,11 @@
     </row>
     <row r="55" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D55" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Clothes Dryer</v>
+        <v>building_characteristics_report.clothes_washer</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>240</v>
@@ -7540,11 +7477,11 @@
     </row>
     <row r="56" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="D56" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Lighting</v>
+        <v>building_characteristics_report.clothes_dryer</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>240</v>
@@ -7561,11 +7498,11 @@
     </row>
     <row r="57" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D57" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Plug Loads</v>
+        <v>building_characteristics_report.lighting</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>240</v>
@@ -7582,11 +7519,11 @@
     </row>
     <row r="58" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D58" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Extra Refrigerator</v>
+        <v>building_characteristics_report.plug_loads</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>240</v>
@@ -7603,11 +7540,11 @@
     </row>
     <row r="59" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D59" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Freezer</v>
+        <v>building_characteristics_report.misc_extra_refrigerator</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>240</v>
@@ -7624,11 +7561,11 @@
     </row>
     <row r="60" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D60" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Gas Fireplace</v>
+        <v>building_characteristics_report.misc_freezer</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>240</v>
@@ -7645,11 +7582,11 @@
     </row>
     <row r="61" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D61" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Gas Grill</v>
+        <v>building_characteristics_report.misc_gas_fireplace</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>240</v>
@@ -7666,11 +7603,11 @@
     </row>
     <row r="62" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D62" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Gas Lighting</v>
+        <v>building_characteristics_report.misc_gas_grill</v>
       </c>
       <c r="F62" s="47" t="s">
         <v>240</v>
@@ -7687,11 +7624,11 @@
     </row>
     <row r="63" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D63" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Hot Tub Spa</v>
+        <v>building_characteristics_report.misc_gas_lighting</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>240</v>
@@ -7708,11 +7645,11 @@
     </row>
     <row r="64" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D64" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Pool</v>
+        <v>building_characteristics_report.misc_hot_tub_spa</v>
       </c>
       <c r="F64" s="47" t="s">
         <v>240</v>
@@ -7729,11 +7666,11 @@
     </row>
     <row r="65" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D65" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Misc Well Pump</v>
+        <v>building_characteristics_report.misc_pool</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>240</v>
@@ -7750,11 +7687,11 @@
     </row>
     <row r="66" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D66" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Ducts</v>
+        <v>building_characteristics_report.misc_well_pump</v>
       </c>
       <c r="F66" s="47" t="s">
         <v>240</v>
@@ -7771,11 +7708,11 @@
     </row>
     <row r="67" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D67" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Infiltration</v>
+        <v>building_characteristics_report.ducts</v>
       </c>
       <c r="F67" s="47" t="s">
         <v>240</v>
@@ -7792,11 +7729,11 @@
     </row>
     <row r="68" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D68" s="47" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.Natural Ventilation</v>
+        <v>building_characteristics_report.infiltration</v>
       </c>
       <c r="F68" s="47" t="s">
         <v>240</v>
@@ -7813,11 +7750,11 @@
     </row>
     <row r="69" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D69" s="47" t="str">
-        <f t="shared" ref="D69" si="1">"building_characteristics_report."&amp;A69</f>
-        <v>building_characteristics_report.Mechanical Ventilation</v>
+        <f t="shared" ref="D69:D70" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A69," ","_"))</f>
+        <v>building_characteristics_report.natural_ventilation</v>
       </c>
       <c r="F69" s="47" t="s">
         <v>240</v>
@@ -7832,35 +7769,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="G70" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="13" t="b">
+    <row r="70" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.mechanical_ventilation</v>
+      </c>
+      <c r="F70" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G70" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>330</v>
+        <v>241</v>
+      </c>
+      <c r="D71" s="13" t="str">
+        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A71," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_energy_m_btu</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G71" s="13" t="b">
         <v>0</v>
@@ -7874,13 +7813,14 @@
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D72" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="13" t="str">
+        <f t="shared" ref="D72:D92" si="2">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A72," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_electricity_k_wh</v>
+      </c>
+      <c r="F72" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>349</v>
       </c>
       <c r="G72" s="13" t="b">
         <v>0</v>
@@ -7894,13 +7834,14 @@
     </row>
     <row r="73" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>332</v>
+        <v>243</v>
+      </c>
+      <c r="D73" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.total_site_natural_gas_therm</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G73" s="13" t="b">
         <v>0</v>
@@ -7914,13 +7855,14 @@
     </row>
     <row r="74" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>333</v>
+        <v>244</v>
+      </c>
+      <c r="D74" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.total_site_other_fuel_m_btu</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G74" s="13" t="b">
         <v>0</v>
@@ -7934,13 +7876,14 @@
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>334</v>
+        <v>245</v>
+      </c>
+      <c r="D75" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_heating_k_wh</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G75" s="13" t="b">
         <v>0</v>
@@ -7954,13 +7897,14 @@
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>335</v>
+        <v>246</v>
+      </c>
+      <c r="D76" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_cooling_k_wh</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G76" s="13" t="b">
         <v>0</v>
@@ -7974,13 +7918,14 @@
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>336</v>
+        <v>247</v>
+      </c>
+      <c r="D77" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_interior_lighting_k_wh</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G77" s="13" t="b">
         <v>0</v>
@@ -7994,13 +7939,14 @@
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>337</v>
+        <v>248</v>
+      </c>
+      <c r="D78" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_exterior_lighting_k_wh</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G78" s="13" t="b">
         <v>0</v>
@@ -8014,13 +7960,14 @@
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>338</v>
+        <v>249</v>
+      </c>
+      <c r="D79" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_interior_equipment_k_wh</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G79" s="13" t="b">
         <v>0</v>
@@ -8034,13 +7981,14 @@
     </row>
     <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>339</v>
+        <v>250</v>
+      </c>
+      <c r="D80" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_fans_k_wh</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G80" s="13" t="b">
         <v>0</v>
@@ -8054,33 +8002,35 @@
     </row>
     <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_pumps_k_wh</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G81" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="G81" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>341</v>
+      <c r="D82" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.electricity_water_systems_k_wh</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G82" s="13" t="b">
         <v>0</v>
@@ -8094,13 +8044,14 @@
     </row>
     <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>342</v>
+        <v>253</v>
+      </c>
+      <c r="D83" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.natural_gas_heating_therm</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G83" s="13" t="b">
         <v>0</v>
@@ -8114,13 +8065,14 @@
     </row>
     <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>343</v>
+        <v>254</v>
+      </c>
+      <c r="D84" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.natural_gas_interior_equipment_therm</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G84" s="13" t="b">
         <v>0</v>
@@ -8134,13 +8086,14 @@
     </row>
     <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>344</v>
+        <v>255</v>
+      </c>
+      <c r="D85" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.natural_gas_water_systems_therm</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G85" s="13" t="b">
         <v>0</v>
@@ -8154,13 +8107,14 @@
     </row>
     <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>345</v>
+        <v>256</v>
+      </c>
+      <c r="D86" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.other_fuel_heating_m_btu</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G86" s="13" t="b">
         <v>0</v>
@@ -8174,13 +8128,14 @@
     </row>
     <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>346</v>
+        <v>257</v>
+      </c>
+      <c r="D87" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.other_fuel_interior_equipment_m_btu</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G87" s="13" t="b">
         <v>0</v>
@@ -8194,13 +8149,14 @@
     </row>
     <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>357</v>
+        <v>258</v>
+      </c>
+      <c r="D88" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.other_fuel_water_systems_m_btu</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G88" s="13" t="b">
         <v>0</v>
@@ -8211,20 +8167,17 @@
       <c r="I88" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
     </row>
     <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>359</v>
+        <v>338</v>
+      </c>
+      <c r="D89" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.hours_heating_setpoint_not_met</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G89" s="13" t="b">
         <v>0</v>
@@ -8241,14 +8194,15 @@
       <c r="M89" s="48"/>
     </row>
     <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>363</v>
+      <c r="A90" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D90" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.hours_cooling_setpoint_not_met</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G90" s="13" t="b">
         <v>0</v>
@@ -8259,16 +8213,21 @@
       <c r="I90" s="13" t="b">
         <v>0</v>
       </c>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
     </row>
     <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>364</v>
+        <v>341</v>
+      </c>
+      <c r="D91" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.hvac_cooling_capacity_w</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="G91" s="13" t="b">
         <v>0</v>
@@ -8280,14 +8239,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="20"/>
-      <c r="D92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="D92" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>simulation_output_report.hvac_heating_capacity_w</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G92" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
@@ -8541,12 +8512,10 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="20"/>
-      <c r="C121" s="21"/>
       <c r="D121" s="14"/>
-      <c r="E121" s="21"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
@@ -8606,6 +8575,17 @@
       <c r="G126" s="14"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/projects/resstock_testing.xlsx
+++ b/projects/resstock_testing.xlsx
@@ -6046,13 +6046,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>234</v>
@@ -6082,13 +6082,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>234</v>

--- a/projects/resstock_testing.xlsx
+++ b/projects/resstock_testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -5186,7 +5186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6169,7 +6169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6285,574 +6285,487 @@
       </c>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="str">
-        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A4," ","_"))</f>
-        <v>building_characteristics_report.location_epw</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-    </row>
-    <row r="5" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="str">
-        <f t="shared" ref="D5:D68" si="0">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A5," ","_"))</f>
-        <v>building_characteristics_report.heating_fuel</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="str">
+    <row r="4" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="13" t="str">
+        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A4," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_energy_m_btu</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="13" t="str">
+        <f t="shared" ref="D5:D25" si="0">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A5," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
+        <v>simulation_output_report.total_site_electricity_k_wh</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.geometry_foundation_type</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="str">
+        <v>simulation_output_report.total_site_natural_gas_therm</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.geometry_house_size</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-    </row>
-    <row r="8" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47" t="str">
+        <v>simulation_output_report.total_site_other_fuel_m_btu</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.geometry_stories</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47" t="str">
+        <v>simulation_output_report.electricity_heating_k_wh</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.geometry_garage</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-    </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47" t="str">
+        <v>simulation_output_report.electricity_cooling_k_wh</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.occupants</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47" t="str">
+        <v>simulation_output_report.electricity_interior_lighting_k_wh</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.orientation</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-    </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47" t="str">
+        <v>simulation_output_report.electricity_exterior_lighting_k_wh</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.eaves</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47" t="str">
+        <v>simulation_output_report.electricity_interior_equipment_k_wh</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.overhangs</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="47" t="str">
+        <v>simulation_output_report.electricity_fans_k_wh</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G13" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.door_area</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="47" t="str">
+        <v>simulation_output_report.electricity_pumps_k_wh</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.window_areas</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47" t="str">
+        <v>simulation_output_report.electricity_water_systems_k_wh</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.neighbors</v>
-      </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47" t="str">
+        <v>simulation_output_report.natural_gas_heating_therm</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_unfinished_attic</v>
-      </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-    </row>
-    <row r="18" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47" t="str">
+        <v>simulation_output_report.natural_gas_interior_equipment_therm</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_wall</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G18" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47" t="str">
+        <v>simulation_output_report.natural_gas_water_systems_therm</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_slab</v>
-      </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-    </row>
-    <row r="20" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="47" t="str">
+        <v>simulation_output_report.other_fuel_heating_m_btu</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_crawlspace</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" s="47" t="str">
+        <v>simulation_output_report.other_fuel_interior_equipment_m_btu</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_pier_beam</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="47" t="str">
+        <v>simulation_output_report.other_fuel_water_systems_m_btu</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_unfinished_basement</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" s="47" t="str">
+        <v>simulation_output_report.hours_heating_setpoint_not_met</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+    </row>
+    <row r="23" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_finished_basement</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="47" t="str">
+        <v>simulation_output_report.hours_cooling_setpoint_not_met</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+    </row>
+    <row r="24" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.insulation_interzonal_floor</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="47" t="str">
+        <v>simulation_output_report.hvac_cooling_capacity_w</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G24" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>building_characteristics_report.uninsulated_surfaces</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G25" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="47" t="b">
+        <v>simulation_output_report.hvac_heating_capacity_w</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>290</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.roof_sheathing</v>
-      </c>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A26," ","_"))</f>
+        <v>building_characteristics_report.location_epw</v>
+      </c>
+      <c r="E26" s="47"/>
       <c r="F26" s="47" t="s">
         <v>240</v>
       </c>
@@ -6865,15 +6778,22 @@
       <c r="I26" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
     </row>
     <row r="27" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>291</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.wall_sheathing</v>
-      </c>
+        <f t="shared" ref="D27:D90" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A27," ","_"))</f>
+        <v>building_characteristics_report.heating_fuel</v>
+      </c>
+      <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
         <v>240</v>
       </c>
@@ -6886,15 +6806,22 @@
       <c r="I27" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
     </row>
     <row r="28" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>292</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.floor_sheathing</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.geometry_foundation_type</v>
+      </c>
+      <c r="E28" s="47"/>
       <c r="F28" s="47" t="s">
         <v>240</v>
       </c>
@@ -6907,15 +6834,22 @@
       <c r="I28" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
     </row>
     <row r="29" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>293</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.exterior_finish</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.geometry_house_size</v>
+      </c>
+      <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
         <v>240</v>
       </c>
@@ -6928,15 +6862,22 @@
       <c r="I29" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
     </row>
     <row r="30" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>294</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.roof_material</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.geometry_stories</v>
+      </c>
+      <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
         <v>240</v>
       </c>
@@ -6949,15 +6890,22 @@
       <c r="I30" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
     </row>
     <row r="31" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>295</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.floor_covering</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.geometry_garage</v>
+      </c>
+      <c r="E31" s="47"/>
       <c r="F31" s="47" t="s">
         <v>240</v>
       </c>
@@ -6970,15 +6918,22 @@
       <c r="I31" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
     </row>
     <row r="32" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>296</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_floor</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.occupants</v>
+      </c>
+      <c r="E32" s="47"/>
       <c r="F32" s="47" t="s">
         <v>240</v>
       </c>
@@ -6991,15 +6946,22 @@
       <c r="I32" s="47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+    </row>
+    <row r="33" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>297</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.orientation</v>
+      </c>
+      <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
         <v>240</v>
       </c>
@@ -7012,15 +6974,22 @@
       <c r="I33" s="47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+    </row>
+    <row r="34" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>298</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_partition_wall</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.eaves</v>
+      </c>
+      <c r="E34" s="47"/>
       <c r="F34" s="47" t="s">
         <v>240</v>
       </c>
@@ -7033,15 +7002,22 @@
       <c r="I34" s="47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+    </row>
+    <row r="35" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>299</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_ceiling</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.overhangs</v>
+      </c>
+      <c r="E35" s="47"/>
       <c r="F35" s="47" t="s">
         <v>240</v>
       </c>
@@ -7054,14 +7030,18 @@
       <c r="I35" s="47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D36" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.thermal_mass_furniture</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.door_area</v>
       </c>
       <c r="F36" s="47" t="s">
         <v>240</v>
@@ -7076,13 +7056,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D37" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.doors</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.window_areas</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>240</v>
@@ -7097,14 +7077,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>265</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.windows</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.neighbors</v>
+      </c>
+      <c r="E38" s="47"/>
       <c r="F38" s="47" t="s">
         <v>240</v>
       </c>
@@ -7117,15 +7100,22 @@
       <c r="I38" s="47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>302</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.water_heater</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_unfinished_attic</v>
+      </c>
+      <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
         <v>240</v>
       </c>
@@ -7138,15 +7128,22 @@
       <c r="I39" s="47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+    </row>
+    <row r="40" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>303</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hot_water_fixtures</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_wall</v>
+      </c>
+      <c r="E40" s="47"/>
       <c r="F40" s="47" t="s">
         <v>240</v>
       </c>
@@ -7159,15 +7156,22 @@
       <c r="I40" s="47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+    </row>
+    <row r="41" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>336</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hot_water_distribution</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_slab</v>
+      </c>
+      <c r="E41" s="47"/>
       <c r="F41" s="47" t="s">
         <v>240</v>
       </c>
@@ -7180,14 +7184,18 @@
       <c r="I41" s="47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+    </row>
+    <row r="42" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D42" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_is_combined</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_crawlspace</v>
       </c>
       <c r="F42" s="47" t="s">
         <v>240</v>
@@ -7202,13 +7210,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="D43" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_combined</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_pier_beam</v>
       </c>
       <c r="F43" s="47" t="s">
         <v>240</v>
@@ -7223,13 +7231,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="D44" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_heating_electricity</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_unfinished_basement</v>
       </c>
       <c r="F44" s="47" t="s">
         <v>240</v>
@@ -7244,13 +7252,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="D45" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_finished_basement</v>
       </c>
       <c r="F45" s="47" t="s">
         <v>240</v>
@@ -7265,13 +7273,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="D46" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_heating_propane</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.insulation_interzonal_floor</v>
       </c>
       <c r="F46" s="47" t="s">
         <v>240</v>
@@ -7286,13 +7294,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="D47" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.uninsulated_surfaces</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>240</v>
@@ -7307,13 +7315,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D48" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.hvac_system_cooling</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.roof_sheathing</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>240</v>
@@ -7330,11 +7338,11 @@
     </row>
     <row r="49" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D49" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.heating_setpoint</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.wall_sheathing</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>240</v>
@@ -7351,11 +7359,11 @@
     </row>
     <row r="50" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D50" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.cooling_setpoint</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.floor_sheathing</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>240</v>
@@ -7372,11 +7380,11 @@
     </row>
     <row r="51" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="D51" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.ceiling_fan</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.exterior_finish</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>240</v>
@@ -7393,11 +7401,11 @@
     </row>
     <row r="52" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D52" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.refrigerator</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.roof_material</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>240</v>
@@ -7414,11 +7422,11 @@
     </row>
     <row r="53" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="D53" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.cooking_range</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.floor_covering</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>240</v>
@@ -7435,11 +7443,11 @@
     </row>
     <row r="54" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D54" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.dishwasher</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_floor</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>240</v>
@@ -7456,11 +7464,11 @@
     </row>
     <row r="55" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D55" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.clothes_washer</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>240</v>
@@ -7477,11 +7485,11 @@
     </row>
     <row r="56" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D56" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.clothes_dryer</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_partition_wall</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>240</v>
@@ -7498,11 +7506,11 @@
     </row>
     <row r="57" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="D57" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.lighting</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_ceiling</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>240</v>
@@ -7519,11 +7527,11 @@
     </row>
     <row r="58" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D58" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.plug_loads</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.thermal_mass_furniture</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>240</v>
@@ -7540,11 +7548,11 @@
     </row>
     <row r="59" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D59" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_extra_refrigerator</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.doors</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>240</v>
@@ -7561,11 +7569,11 @@
     </row>
     <row r="60" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="D60" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_freezer</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.windows</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>240</v>
@@ -7582,11 +7590,11 @@
     </row>
     <row r="61" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D61" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_gas_fireplace</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.water_heater</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>240</v>
@@ -7603,11 +7611,11 @@
     </row>
     <row r="62" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D62" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_gas_grill</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hot_water_fixtures</v>
       </c>
       <c r="F62" s="47" t="s">
         <v>240</v>
@@ -7624,11 +7632,11 @@
     </row>
     <row r="63" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="D63" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_gas_lighting</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hot_water_distribution</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>240</v>
@@ -7645,11 +7653,11 @@
     </row>
     <row r="64" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D64" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_hot_tub_spa</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_is_combined</v>
       </c>
       <c r="F64" s="47" t="s">
         <v>240</v>
@@ -7666,11 +7674,11 @@
     </row>
     <row r="65" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D65" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_pool</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_combined</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>240</v>
@@ -7687,11 +7695,11 @@
     </row>
     <row r="66" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="D66" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.misc_well_pump</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_heating_electricity</v>
       </c>
       <c r="F66" s="47" t="s">
         <v>240</v>
@@ -7708,11 +7716,11 @@
     </row>
     <row r="67" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="D67" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.ducts</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
       </c>
       <c r="F67" s="47" t="s">
         <v>240</v>
@@ -7729,11 +7737,11 @@
     </row>
     <row r="68" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="D68" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>building_characteristics_report.infiltration</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_heating_propane</v>
       </c>
       <c r="F68" s="47" t="s">
         <v>240</v>
@@ -7750,11 +7758,11 @@
     </row>
     <row r="69" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="D69" s="47" t="str">
-        <f t="shared" ref="D69:D70" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A69," ","_"))</f>
-        <v>building_characteristics_report.natural_ventilation</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
       </c>
       <c r="F69" s="47" t="s">
         <v>240</v>
@@ -7771,11 +7779,11 @@
     </row>
     <row r="70" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D70" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.mechanical_ventilation</v>
+        <v>building_characteristics_report.hvac_system_cooling</v>
       </c>
       <c r="F70" s="47" t="s">
         <v>240</v>
@@ -7790,477 +7798,469 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D71" s="13" t="str">
-        <f>"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A71," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
-        <v>simulation_output_report.total_site_energy_m_btu</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G71" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="D72" s="13" t="str">
-        <f t="shared" ref="D72:D92" si="2">"simulation_output_report."&amp;SUBSTITUTE(SUBSTITUTE(LOWER(SUBSTITUTE(A72," ","_")), "kwh", "k_wh"), "mbtu", "m_btu")</f>
-        <v>simulation_output_report.total_site_electricity_k_wh</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G72" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D73" s="13" t="str">
+    <row r="71" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.heating_setpoint</v>
+      </c>
+      <c r="F71" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="D72" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.cooling_setpoint</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="D73" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.ceiling_fan</v>
+      </c>
+      <c r="F73" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="D74" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.refrigerator</v>
+      </c>
+      <c r="F74" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.cooking_range</v>
+      </c>
+      <c r="F75" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="D76" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.dishwasher</v>
+      </c>
+      <c r="F76" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="D77" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.clothes_washer</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D78" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.clothes_dryer</v>
+      </c>
+      <c r="F78" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.lighting</v>
+      </c>
+      <c r="F79" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G79" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.plug_loads</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="D81" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_extra_refrigerator</v>
+      </c>
+      <c r="F81" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D82" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_freezer</v>
+      </c>
+      <c r="F82" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="D83" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_fireplace</v>
+      </c>
+      <c r="F83" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_grill</v>
+      </c>
+      <c r="F84" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_gas_lighting</v>
+      </c>
+      <c r="F85" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G85" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D86" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_hot_tub_spa</v>
+      </c>
+      <c r="F86" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_pool</v>
+      </c>
+      <c r="F87" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D88" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_well_pump</v>
+      </c>
+      <c r="F88" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.ducts</v>
+      </c>
+      <c r="F89" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G89" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.infiltration</v>
+      </c>
+      <c r="F90" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G90" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" s="47" t="str">
+        <f t="shared" ref="D91:D92" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A91," ","_"))</f>
+        <v>building_characteristics_report.natural_ventilation</v>
+      </c>
+      <c r="F91" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="D92" s="47" t="str">
         <f t="shared" si="2"/>
-        <v>simulation_output_report.total_site_natural_gas_therm</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G73" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.total_site_other_fuel_m_btu</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G74" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="D75" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_heating_k_wh</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G75" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_cooling_k_wh</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G76" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="D77" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_interior_lighting_k_wh</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G77" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="D78" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_exterior_lighting_k_wh</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G78" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_interior_equipment_k_wh</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G79" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="D80" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_fans_k_wh</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G80" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="D81" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_pumps_k_wh</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G81" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="D82" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.electricity_water_systems_k_wh</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G82" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D83" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.natural_gas_heating_therm</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G83" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D84" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.natural_gas_interior_equipment_therm</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G84" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D85" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.natural_gas_water_systems_therm</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G85" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D86" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.other_fuel_heating_m_btu</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G86" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D87" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.other_fuel_interior_equipment_m_btu</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G87" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D88" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.other_fuel_water_systems_m_btu</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G88" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="D89" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.hours_heating_setpoint_not_met</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G89" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="48"/>
-    </row>
-    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D90" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.hours_cooling_setpoint_not_met</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G90" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
-      <c r="L90" s="48"/>
-      <c r="M90" s="48"/>
-    </row>
-    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="D91" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.hvac_cooling_capacity_w</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G91" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="D92" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>simulation_output_report.hvac_heating_capacity_w</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G92" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>building_characteristics_report.mechanical_ventilation</v>
+      </c>
+      <c r="F92" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G92" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="20"/>
       <c r="D93" s="14"/>
@@ -8269,7 +8269,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="20"/>
       <c r="D94" s="14"/>
@@ -8278,7 +8278,7 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="20"/>
       <c r="D95" s="14"/>
@@ -8287,7 +8287,7 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="20"/>
       <c r="D96" s="14"/>

--- a/projects/resstock_testing.xlsx
+++ b/projects/resstock_testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8295" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="362">
   <si>
     <t>type</t>
   </si>
@@ -1108,6 +1108,18 @@
   </si>
   <si>
     <t>Ceiling Fan</t>
+  </si>
+  <si>
+    <t>Location City</t>
+  </si>
+  <si>
+    <t>Location State</t>
+  </si>
+  <si>
+    <t>Location Latitude</t>
+  </si>
+  <si>
+    <t>Location Longitude</t>
   </si>
 </sst>
 </file>
@@ -5186,7 +5198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6167,9 +6179,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6785,13 +6797,13 @@
     </row>
     <row r="27" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47" t="str">
-        <f t="shared" ref="D27:D90" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A27," ","_"))</f>
-        <v>building_characteristics_report.heating_fuel</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A27," ","_"))</f>
+        <v>building_characteristics_report.location_city</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
@@ -6813,13 +6825,13 @@
     </row>
     <row r="28" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_foundation_type</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A28," ","_"))</f>
+        <v>building_characteristics_report.location_state</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47" t="s">
@@ -6841,17 +6853,17 @@
     </row>
     <row r="29" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_house_size</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A29," ","_"))</f>
+        <v>building_characteristics_report.location_latitude</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="G29" s="47" t="b">
         <v>0</v>
@@ -6869,17 +6881,17 @@
     </row>
     <row r="30" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_stories</v>
+        <f>"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A30," ","_"))</f>
+        <v>building_characteristics_report.location_longitude</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="G30" s="47" t="b">
         <v>0</v>
@@ -6897,13 +6909,13 @@
     </row>
     <row r="31" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>building_characteristics_report.geometry_garage</v>
+        <f t="shared" ref="D31:D94" si="1">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A31," ","_"))</f>
+        <v>building_characteristics_report.heating_fuel</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47" t="s">
@@ -6925,13 +6937,13 @@
     </row>
     <row r="32" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.occupants</v>
+        <v>building_characteristics_report.geometry_foundation_type</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47" t="s">
@@ -6953,13 +6965,13 @@
     </row>
     <row r="33" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="D33" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.orientation</v>
+        <v>building_characteristics_report.geometry_house_size</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47" t="s">
@@ -6981,13 +6993,13 @@
     </row>
     <row r="34" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.eaves</v>
+        <v>building_characteristics_report.geometry_stories</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47" t="s">
@@ -7009,13 +7021,13 @@
     </row>
     <row r="35" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="D35" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.overhangs</v>
+        <v>building_characteristics_report.geometry_garage</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47" t="s">
@@ -7037,12 +7049,15 @@
     </row>
     <row r="36" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>280</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.door_area</v>
-      </c>
+        <v>building_characteristics_report.occupants</v>
+      </c>
+      <c r="E36" s="47"/>
       <c r="F36" s="47" t="s">
         <v>240</v>
       </c>
@@ -7055,15 +7070,22 @@
       <c r="I36" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
     </row>
     <row r="37" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>281</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.window_areas</v>
-      </c>
+        <v>building_characteristics_report.orientation</v>
+      </c>
+      <c r="E37" s="47"/>
       <c r="F37" s="47" t="s">
         <v>240</v>
       </c>
@@ -7076,16 +7098,20 @@
       <c r="I37" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
       <c r="D38" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.neighbors</v>
+        <v>building_characteristics_report.eaves</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="47" t="s">
@@ -7107,13 +7133,13 @@
     </row>
     <row r="39" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_unfinished_attic</v>
+        <v>building_characteristics_report.overhangs</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
@@ -7135,15 +7161,12 @@
     </row>
     <row r="40" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+        <v>280</v>
+      </c>
       <c r="D40" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_wall</v>
-      </c>
-      <c r="E40" s="47"/>
+        <v>building_characteristics_report.door_area</v>
+      </c>
       <c r="F40" s="47" t="s">
         <v>240</v>
       </c>
@@ -7156,22 +7179,15 @@
       <c r="I40" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
     </row>
     <row r="41" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+        <v>281</v>
+      </c>
       <c r="D41" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_slab</v>
-      </c>
-      <c r="E41" s="47"/>
+        <v>building_characteristics_report.window_areas</v>
+      </c>
       <c r="F41" s="47" t="s">
         <v>240</v>
       </c>
@@ -7184,19 +7200,18 @@
       <c r="I41" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>285</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_crawlspace</v>
-      </c>
+        <v>building_characteristics_report.neighbors</v>
+      </c>
+      <c r="E42" s="47"/>
       <c r="F42" s="47" t="s">
         <v>240</v>
       </c>
@@ -7209,15 +7224,22 @@
       <c r="I42" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>350</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_pier_beam</v>
-      </c>
+        <v>building_characteristics_report.insulation_unfinished_attic</v>
+      </c>
+      <c r="E43" s="47"/>
       <c r="F43" s="47" t="s">
         <v>240</v>
       </c>
@@ -7230,15 +7252,22 @@
       <c r="I43" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
     </row>
     <row r="44" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>286</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_unfinished_basement</v>
-      </c>
+        <v>building_characteristics_report.insulation_wall</v>
+      </c>
+      <c r="E44" s="47"/>
       <c r="F44" s="47" t="s">
         <v>240</v>
       </c>
@@ -7251,15 +7280,22 @@
       <c r="I44" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>287</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_finished_basement</v>
-      </c>
+        <v>building_characteristics_report.insulation_slab</v>
+      </c>
+      <c r="E45" s="47"/>
       <c r="F45" s="47" t="s">
         <v>240</v>
       </c>
@@ -7272,14 +7308,18 @@
       <c r="I45" s="47" t="b">
         <v>0</v>
       </c>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
     </row>
     <row r="46" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D46" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.insulation_interzonal_floor</v>
+        <v>building_characteristics_report.insulation_crawlspace</v>
       </c>
       <c r="F46" s="47" t="s">
         <v>240</v>
@@ -7296,11 +7336,11 @@
     </row>
     <row r="47" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="D47" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.uninsulated_surfaces</v>
+        <v>building_characteristics_report.insulation_pier_beam</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>240</v>
@@ -7317,11 +7357,11 @@
     </row>
     <row r="48" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D48" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.roof_sheathing</v>
+        <v>building_characteristics_report.insulation_unfinished_basement</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>240</v>
@@ -7338,11 +7378,11 @@
     </row>
     <row r="49" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D49" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.wall_sheathing</v>
+        <v>building_characteristics_report.insulation_finished_basement</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>240</v>
@@ -7359,11 +7399,11 @@
     </row>
     <row r="50" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D50" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.floor_sheathing</v>
+        <v>building_characteristics_report.insulation_interzonal_floor</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>240</v>
@@ -7380,11 +7420,11 @@
     </row>
     <row r="51" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D51" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.exterior_finish</v>
+        <v>building_characteristics_report.uninsulated_surfaces</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>240</v>
@@ -7401,11 +7441,11 @@
     </row>
     <row r="52" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D52" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.roof_material</v>
+        <v>building_characteristics_report.roof_sheathing</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>240</v>
@@ -7422,11 +7462,11 @@
     </row>
     <row r="53" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D53" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.floor_covering</v>
+        <v>building_characteristics_report.wall_sheathing</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>240</v>
@@ -7443,11 +7483,11 @@
     </row>
     <row r="54" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D54" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_floor</v>
+        <v>building_characteristics_report.floor_sheathing</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>240</v>
@@ -7464,11 +7504,11 @@
     </row>
     <row r="55" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D55" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
+        <v>building_characteristics_report.exterior_finish</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>240</v>
@@ -7485,11 +7525,11 @@
     </row>
     <row r="56" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D56" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_partition_wall</v>
+        <v>building_characteristics_report.roof_material</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>240</v>
@@ -7506,11 +7546,11 @@
     </row>
     <row r="57" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D57" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_ceiling</v>
+        <v>building_characteristics_report.floor_covering</v>
       </c>
       <c r="F57" s="47" t="s">
         <v>240</v>
@@ -7527,11 +7567,11 @@
     </row>
     <row r="58" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D58" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.thermal_mass_furniture</v>
+        <v>building_characteristics_report.thermal_mass_floor</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>240</v>
@@ -7548,11 +7588,11 @@
     </row>
     <row r="59" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D59" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.doors</v>
+        <v>building_characteristics_report.thermal_mass_exterior_wall</v>
       </c>
       <c r="F59" s="47" t="s">
         <v>240</v>
@@ -7569,11 +7609,11 @@
     </row>
     <row r="60" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="D60" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.windows</v>
+        <v>building_characteristics_report.thermal_mass_partition_wall</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>240</v>
@@ -7590,11 +7630,11 @@
     </row>
     <row r="61" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D61" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.water_heater</v>
+        <v>building_characteristics_report.thermal_mass_ceiling</v>
       </c>
       <c r="F61" s="47" t="s">
         <v>240</v>
@@ -7611,11 +7651,11 @@
     </row>
     <row r="62" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D62" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hot_water_fixtures</v>
+        <v>building_characteristics_report.thermal_mass_furniture</v>
       </c>
       <c r="F62" s="47" t="s">
         <v>240</v>
@@ -7632,11 +7672,11 @@
     </row>
     <row r="63" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="D63" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hot_water_distribution</v>
+        <v>building_characteristics_report.doors</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>240</v>
@@ -7653,11 +7693,11 @@
     </row>
     <row r="64" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="D64" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_is_combined</v>
+        <v>building_characteristics_report.windows</v>
       </c>
       <c r="F64" s="47" t="s">
         <v>240</v>
@@ -7674,11 +7714,11 @@
     </row>
     <row r="65" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D65" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_combined</v>
+        <v>building_characteristics_report.water_heater</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>240</v>
@@ -7695,11 +7735,11 @@
     </row>
     <row r="66" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="D66" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_electricity</v>
+        <v>building_characteristics_report.hot_water_fixtures</v>
       </c>
       <c r="F66" s="47" t="s">
         <v>240</v>
@@ -7716,11 +7756,11 @@
     </row>
     <row r="67" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D67" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
+        <v>building_characteristics_report.hot_water_distribution</v>
       </c>
       <c r="F67" s="47" t="s">
         <v>240</v>
@@ -7737,11 +7777,11 @@
     </row>
     <row r="68" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="D68" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_propane</v>
+        <v>building_characteristics_report.hvac_system_is_combined</v>
       </c>
       <c r="F68" s="47" t="s">
         <v>240</v>
@@ -7758,11 +7798,11 @@
     </row>
     <row r="69" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="D69" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
+        <v>building_characteristics_report.hvac_system_combined</v>
       </c>
       <c r="F69" s="47" t="s">
         <v>240</v>
@@ -7779,11 +7819,11 @@
     </row>
     <row r="70" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="D70" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.hvac_system_cooling</v>
+        <v>building_characteristics_report.hvac_system_heating_electricity</v>
       </c>
       <c r="F70" s="47" t="s">
         <v>240</v>
@@ -7800,11 +7840,11 @@
     </row>
     <row r="71" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="D71" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.heating_setpoint</v>
+        <v>building_characteristics_report.hvac_system_heating_natural_gas</v>
       </c>
       <c r="F71" s="47" t="s">
         <v>240</v>
@@ -7821,11 +7861,11 @@
     </row>
     <row r="72" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="D72" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.cooling_setpoint</v>
+        <v>building_characteristics_report.hvac_system_heating_propane</v>
       </c>
       <c r="F72" s="47" t="s">
         <v>240</v>
@@ -7842,11 +7882,11 @@
     </row>
     <row r="73" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D73" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.ceiling_fan</v>
+        <v>building_characteristics_report.hvac_system_heating_fuel_oil</v>
       </c>
       <c r="F73" s="47" t="s">
         <v>240</v>
@@ -7863,11 +7903,11 @@
     </row>
     <row r="74" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D74" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.refrigerator</v>
+        <v>building_characteristics_report.hvac_system_cooling</v>
       </c>
       <c r="F74" s="47" t="s">
         <v>240</v>
@@ -7884,11 +7924,11 @@
     </row>
     <row r="75" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D75" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.cooking_range</v>
+        <v>building_characteristics_report.heating_setpoint</v>
       </c>
       <c r="F75" s="47" t="s">
         <v>240</v>
@@ -7905,11 +7945,11 @@
     </row>
     <row r="76" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D76" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.dishwasher</v>
+        <v>building_characteristics_report.cooling_setpoint</v>
       </c>
       <c r="F76" s="47" t="s">
         <v>240</v>
@@ -7926,11 +7966,11 @@
     </row>
     <row r="77" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="D77" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.clothes_washer</v>
+        <v>building_characteristics_report.ceiling_fan</v>
       </c>
       <c r="F77" s="47" t="s">
         <v>240</v>
@@ -7947,11 +7987,11 @@
     </row>
     <row r="78" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D78" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.clothes_dryer</v>
+        <v>building_characteristics_report.refrigerator</v>
       </c>
       <c r="F78" s="47" t="s">
         <v>240</v>
@@ -7968,11 +8008,11 @@
     </row>
     <row r="79" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="D79" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.lighting</v>
+        <v>building_characteristics_report.cooking_range</v>
       </c>
       <c r="F79" s="47" t="s">
         <v>240</v>
@@ -7989,11 +8029,11 @@
     </row>
     <row r="80" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D80" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.plug_loads</v>
+        <v>building_characteristics_report.dishwasher</v>
       </c>
       <c r="F80" s="47" t="s">
         <v>240</v>
@@ -8010,11 +8050,11 @@
     </row>
     <row r="81" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D81" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_extra_refrigerator</v>
+        <v>building_characteristics_report.clothes_washer</v>
       </c>
       <c r="F81" s="47" t="s">
         <v>240</v>
@@ -8031,11 +8071,11 @@
     </row>
     <row r="82" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D82" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_freezer</v>
+        <v>building_characteristics_report.clothes_dryer</v>
       </c>
       <c r="F82" s="47" t="s">
         <v>240</v>
@@ -8052,11 +8092,11 @@
     </row>
     <row r="83" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="D83" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_gas_fireplace</v>
+        <v>building_characteristics_report.lighting</v>
       </c>
       <c r="F83" s="47" t="s">
         <v>240</v>
@@ -8073,11 +8113,11 @@
     </row>
     <row r="84" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D84" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_gas_grill</v>
+        <v>building_characteristics_report.plug_loads</v>
       </c>
       <c r="F84" s="47" t="s">
         <v>240</v>
@@ -8094,11 +8134,11 @@
     </row>
     <row r="85" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D85" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_gas_lighting</v>
+        <v>building_characteristics_report.misc_extra_refrigerator</v>
       </c>
       <c r="F85" s="47" t="s">
         <v>240</v>
@@ -8115,11 +8155,11 @@
     </row>
     <row r="86" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D86" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_hot_tub_spa</v>
+        <v>building_characteristics_report.misc_freezer</v>
       </c>
       <c r="F86" s="47" t="s">
         <v>240</v>
@@ -8136,11 +8176,11 @@
     </row>
     <row r="87" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D87" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_pool</v>
+        <v>building_characteristics_report.misc_gas_fireplace</v>
       </c>
       <c r="F87" s="47" t="s">
         <v>240</v>
@@ -8157,11 +8197,11 @@
     </row>
     <row r="88" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D88" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.misc_well_pump</v>
+        <v>building_characteristics_report.misc_gas_grill</v>
       </c>
       <c r="F88" s="47" t="s">
         <v>240</v>
@@ -8178,11 +8218,11 @@
     </row>
     <row r="89" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D89" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.ducts</v>
+        <v>building_characteristics_report.misc_gas_lighting</v>
       </c>
       <c r="F89" s="47" t="s">
         <v>240</v>
@@ -8199,11 +8239,11 @@
     </row>
     <row r="90" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D90" s="47" t="str">
         <f t="shared" si="1"/>
-        <v>building_characteristics_report.infiltration</v>
+        <v>building_characteristics_report.misc_hot_tub_spa</v>
       </c>
       <c r="F90" s="47" t="s">
         <v>240</v>
@@ -8220,11 +8260,11 @@
     </row>
     <row r="91" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D91" s="47" t="str">
-        <f t="shared" ref="D91:D92" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A91," ","_"))</f>
-        <v>building_characteristics_report.natural_ventilation</v>
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_pool</v>
       </c>
       <c r="F91" s="47" t="s">
         <v>240</v>
@@ -8241,60 +8281,108 @@
     </row>
     <row r="92" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D92" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.misc_well_pump</v>
+      </c>
+      <c r="F92" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G92" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="D93" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.ducts</v>
+      </c>
+      <c r="F93" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G93" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v>building_characteristics_report.infiltration</v>
+      </c>
+      <c r="F94" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" s="47" t="str">
+        <f t="shared" ref="D95:D96" si="2">"building_characteristics_report."&amp;LOWER(SUBSTITUTE(A95," ","_"))</f>
+        <v>building_characteristics_report.natural_ventilation</v>
+      </c>
+      <c r="F95" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="G95" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="D92" s="47" t="str">
+      <c r="D96" s="47" t="str">
         <f t="shared" si="2"/>
         <v>building_characteristics_report.mechanical_ventilation</v>
       </c>
-      <c r="F92" s="47" t="s">
+      <c r="F96" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="G92" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="20"/>
-      <c r="D93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-    </row>
-    <row r="94" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="20"/>
-      <c r="D94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-    </row>
-    <row r="95" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="20"/>
-      <c r="D95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-    </row>
-    <row r="96" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="20"/>
-      <c r="D96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="G96" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
@@ -8521,45 +8609,37 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="20"/>
-      <c r="C122" s="21"/>
       <c r="D122" s="14"/>
-      <c r="E122" s="21"/>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="20"/>
-      <c r="C123" s="21"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="21"/>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="20"/>
-      <c r="C124" s="21"/>
       <c r="D124" s="14"/>
-      <c r="E124" s="21"/>
       <c r="F124" s="14"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="20"/>
-      <c r="C125" s="21"/>
       <c r="D125" s="14"/>
-      <c r="E125" s="21"/>
       <c r="F125" s="14"/>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
@@ -8586,6 +8666,50 @@
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
